--- a/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
+++ b/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\sme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\vsme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8502B2A1-3AF3-4DDA-BF34-B8D9BE05B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C50BBC-EA8B-41D3-8E42-0C76F16C0EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-11000" windowWidth="25820" windowHeight="14020" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -930,15 +930,9 @@
     <t>Cubic Meters</t>
   </si>
   <si>
-    <t>Sme Subsidiary</t>
-  </si>
-  <si>
     <t>Total nature-oriented area off-site previous year</t>
   </si>
   <si>
-    <t>Sme Pollution Emission</t>
-  </si>
-  <si>
     <t>Pollution Emission</t>
   </si>
   <si>
@@ -948,9 +942,6 @@
     <t>HeadCount</t>
   </si>
   <si>
-    <t>Sme Site And Area</t>
-  </si>
-  <si>
     <t>Sites and Areas</t>
   </si>
   <si>
@@ -1060,6 +1051,15 @@
   </si>
   <si>
     <t>Please provide the entry level wage you pay.</t>
+  </si>
+  <si>
+    <t>Vsme Subsidiary</t>
+  </si>
+  <si>
+    <t>Vsme Pollution Emission</t>
+  </si>
+  <si>
+    <t>Vsme Site And Area</t>
   </si>
 </sst>
 </file>
@@ -1653,9 +1653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE53926-978F-4910-9169-F720F1E0A6DD}">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="27" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1785,23 +1785,23 @@
         <v>274</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>302</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="27" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2089,14 +2089,14 @@
         <v>277</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="19" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2117,14 +2117,14 @@
         <v>278</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="31" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2313,7 +2313,7 @@
         <v>278</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>81</v>
@@ -2879,12 +2879,12 @@
         <v>283</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -2935,7 +2935,7 @@
         <v>282</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>166</v>
@@ -2953,7 +2953,7 @@
         <v>112</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="2"/>
@@ -2969,7 +2969,7 @@
         <v>282</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>166</v>
@@ -2987,7 +2987,7 @@
         <v>112</v>
       </c>
       <c r="L45" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="2"/>
@@ -3003,7 +3003,7 @@
         <v>282</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>173</v>
@@ -3021,7 +3021,7 @@
         <v>112</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="2"/>
@@ -3037,7 +3037,7 @@
         <v>282</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>173</v>
@@ -3055,7 +3055,7 @@
         <v>112</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="2"/>
@@ -3071,7 +3071,7 @@
         <v>282</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -3087,7 +3087,7 @@
         <v>112</v>
       </c>
       <c r="L48" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="2"/>
@@ -3103,7 +3103,7 @@
         <v>282</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3119,7 +3119,7 @@
         <v>112</v>
       </c>
       <c r="L49" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="2"/>
@@ -3135,7 +3135,7 @@
         <v>282</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>178</v>
@@ -3153,7 +3153,7 @@
         <v>112</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="2"/>
@@ -3169,7 +3169,7 @@
         <v>282</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>178</v>
@@ -3187,7 +3187,7 @@
         <v>112</v>
       </c>
       <c r="L51" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="2"/>
@@ -3203,7 +3203,7 @@
         <v>282</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3219,7 +3219,7 @@
         <v>112</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="2"/>
@@ -3235,7 +3235,7 @@
         <v>282</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -3251,7 +3251,7 @@
         <v>112</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="2"/>
@@ -3267,7 +3267,7 @@
         <v>282</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -3283,7 +3283,7 @@
         <v>112</v>
       </c>
       <c r="L54" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="2"/>
@@ -3299,7 +3299,7 @@
         <v>282</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -3315,7 +3315,7 @@
         <v>112</v>
       </c>
       <c r="L55" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="2"/>
@@ -3331,7 +3331,7 @@
         <v>282</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -3347,7 +3347,7 @@
         <v>112</v>
       </c>
       <c r="L56" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="2"/>
@@ -3363,7 +3363,7 @@
         <v>282</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -3379,7 +3379,7 @@
         <v>112</v>
       </c>
       <c r="L57" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="2"/>
@@ -3395,14 +3395,14 @@
         <v>282</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>187</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -3453,7 +3453,7 @@
         <v>281</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>198</v>
@@ -3509,7 +3509,7 @@
         <v>281</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>204</v>
@@ -3527,7 +3527,7 @@
         <v>112</v>
       </c>
       <c r="L62" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="2"/>
@@ -3543,7 +3543,7 @@
         <v>281</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>204</v>
@@ -3561,7 +3561,7 @@
         <v>112</v>
       </c>
       <c r="L63" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="2"/>
@@ -3577,7 +3577,7 @@
         <v>281</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>207</v>
@@ -3595,7 +3595,7 @@
         <v>112</v>
       </c>
       <c r="L64" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="2"/>
@@ -3611,7 +3611,7 @@
         <v>281</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>207</v>
@@ -3629,7 +3629,7 @@
         <v>112</v>
       </c>
       <c r="L65" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="2"/>
@@ -3645,7 +3645,7 @@
         <v>281</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -3661,7 +3661,7 @@
         <v>112</v>
       </c>
       <c r="L66" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="2"/>
@@ -3677,7 +3677,7 @@
         <v>281</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
@@ -3693,7 +3693,7 @@
         <v>112</v>
       </c>
       <c r="L67" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="2"/>
@@ -3709,7 +3709,7 @@
         <v>280</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>212</v>
@@ -3727,7 +3727,7 @@
         <v>112</v>
       </c>
       <c r="L68" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="2"/>
@@ -3743,7 +3743,7 @@
         <v>280</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>212</v>
@@ -3761,7 +3761,7 @@
         <v>112</v>
       </c>
       <c r="L69" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="2"/>
@@ -3777,7 +3777,7 @@
         <v>280</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>215</v>
@@ -3805,7 +3805,7 @@
         <v>280</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>216</v>
@@ -3836,7 +3836,7 @@
         <v>217</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9" t="s">
@@ -3866,7 +3866,7 @@
         <v>219</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9" t="s">
@@ -4271,7 +4271,7 @@
         <v>112</v>
       </c>
       <c r="L85" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="2"/>
@@ -4305,7 +4305,7 @@
         <v>112</v>
       </c>
       <c r="L86" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="2"/>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>

--- a/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
+++ b/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\vsme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\vsme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C50BBC-EA8B-41D3-8E42-0C76F16C0EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD1E6F-CD0B-4EB6-AC02-E0C9B3420C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="364">
   <si>
     <t>1</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>Undertaken measures</t>
   </si>
   <si>
     <t>Please, describe specific practices for transitioning towards a more sustainable economy in case you have them in place.</t>
@@ -101,22 +98,13 @@
     <t>4</t>
   </si>
   <si>
-    <t>Electricity total</t>
-  </si>
-  <si>
     <t>- electricity as reflected in utility billings. If available distinguish between renewable and non_x0002_renewable sources.</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Electricity non-renewable</t>
-  </si>
-  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>Electricity renewable</t>
   </si>
   <si>
     <t>7</t>
@@ -294,81 +282,45 @@
     <t>28</t>
   </si>
   <si>
-    <t>Total sealed area previous year</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
-    <t>Total sealed area reporting year</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
-    <t>percentual change sealed area</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>Total nature-oriented area on-site previous year</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>Total nature-oriented area on-site reporting year</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
-    <t>percentual change nature-oriented on-site</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>Total nature-oriented area off-site reporting year</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
-    <t>percentual change nature-oriented off-site</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
-    <t>total use of land previous year</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
-    <t>total use of land reporting year</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
-    <t>percentual change land use</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
-    <t>Water withdrawal all sites</t>
-  </si>
-  <si>
     <t>Please, disclose your total water withdrawal (in m^3), i.e., the amount of water drawn into the boundaries of the organisation (or facility); pay additional attention to sites located in areas of high water-stress.</t>
   </si>
   <si>
@@ -378,52 +330,28 @@
     <t>41</t>
   </si>
   <si>
-    <t>Water withdrawal stress sites</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
-    <t>Water discharge all sites</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
-    <t>Water discharge stress sites</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
-    <t>Rainwater all sites</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t>Rainwater stress sits</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
-    <t>Water consumption all sites</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
-    <t>Water consumption stress sites</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
     <t>B 7 – Resource use, circular economy and waste management</t>
-  </si>
-  <si>
-    <t>Total weight materials</t>
   </si>
   <si>
     <t xml:space="preserve">In case you operate manufacturing, construction and/or packaging processes, please provide the share of recycled content in your products and packaging (in per cent based on weight, during the reporting period) For this we require the total weight  (in tons, in the reporting year) of both recycled and overall materials used in products and packaging. 
@@ -436,21 +364,12 @@
     <t>49</t>
   </si>
   <si>
-    <t>Weight recycled materials</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
-    <t>Percentage recycled materials</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
-    <t>Weight recycable materials</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
@@ -628,9 +547,6 @@
     <t>82</t>
   </si>
   <si>
-    <t>Total hours</t>
-  </si>
-  <si>
     <t>Please provide the total number of hours worked in a year by all your employees.</t>
   </si>
   <si>
@@ -649,9 +565,6 @@
     <t>84</t>
   </si>
   <si>
-    <t>Accident level</t>
-  </si>
-  <si>
     <t>Please provide work-related accidents, namely the number of work related accidents per 100 full-time workers over a yearly timeframe (assuming 2000 work hours per worker per year).</t>
   </si>
   <si>
@@ -697,24 +610,12 @@
     <t>Do these constitute more than half of your employees (disregarding interns and apprentices, in the reporting measure you chose)?</t>
   </si>
   <si>
-    <t>Entry level wage</t>
-  </si>
-  <si>
     <t>Euro</t>
   </si>
   <si>
-    <t>Minimum wage</t>
-  </si>
-  <si>
-    <t>Wage ratio</t>
-  </si>
-  <si>
     <t>Please provide the ratio of entry level wage and minimum wage.</t>
   </si>
   <si>
-    <t>Pay gap basis</t>
-  </si>
-  <si>
     <t>Please, in the following provide pay rates and work hours. On which basis do you prefer to report?</t>
   </si>
   <si>
@@ -724,94 +625,28 @@
     <t>&gt;=150</t>
   </si>
   <si>
-    <t>Gross pay male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now taking into account all your employees, according to your choice of timeframe, please provide the gross pay for male respectively for female employees. </t>
-  </si>
-  <si>
-    <t>Gross pay female</t>
-  </si>
-  <si>
-    <t>Total work hours male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taking into account all your employees and your choice of timeframe, please provide the number of average work hours (per week/year) by male respectively by female employees. </t>
-  </si>
-  <si>
-    <t>Total work hours female</t>
-  </si>
-  <si>
-    <t>Average work hours male</t>
-  </si>
-  <si>
-    <t>Average work hours female</t>
-  </si>
-  <si>
-    <t>average hourly pay male</t>
-  </si>
-  <si>
     <t>What is the average hourly pay for male employees?</t>
   </si>
   <si>
     <t>Euro/h</t>
   </si>
   <si>
-    <t>average hourly pay female</t>
-  </si>
-  <si>
     <t>What is the average hourly pay for female employees?</t>
   </si>
   <si>
-    <t>pay gap</t>
-  </si>
-  <si>
     <t xml:space="preserve">What is your pay gap? </t>
   </si>
   <si>
-    <t>Number bargaining agreements full-time</t>
-  </si>
-  <si>
     <t>Please state the number of employees covered by collective bargaining agreements.</t>
   </si>
   <si>
-    <t>Number bargaining agreements head</t>
-  </si>
-  <si>
-    <t>ratio bargaining agreement</t>
-  </si>
-  <si>
     <t>Please provide the ratio of employees with a bargaining agreement with respect to all your employees.</t>
   </si>
   <si>
-    <t>total training hours male</t>
-  </si>
-  <si>
-    <t>Please state the total and average numbers of annual training hours per employee, broken down by gender, that are related to the development of skills and competences, whether acquired through formal or informal forms of capacity-building.</t>
-  </si>
-  <si>
-    <t>total training hours female</t>
-  </si>
-  <si>
-    <t>average training hours male</t>
-  </si>
-  <si>
-    <t>average training hours female</t>
-  </si>
-  <si>
-    <t>Negative effects</t>
-  </si>
-  <si>
     <t>Please disclose whether you have a process in place for identifying wether there are value chain workers, affected communities, or consumers and end-users who are affected or are likely to be affected by severe negative impacts in relation to the undertaking’s operations (i.e., its products, services and activities). If this is in place, please describe this process. If identified, please also describe the types of impacts, including where they arise and the groups that are affected by them.</t>
   </si>
   <si>
-    <t>Number convictions</t>
-  </si>
-  <si>
     <t>In case of convictions and fines in the reporting period, please disclose the number of convictions and the total amount of fines incurred for the violation of anti-corruption or anti-bribery laws.</t>
-  </si>
-  <si>
-    <t>Sum fines</t>
   </si>
   <si>
     <t>Field Identifier</t>
@@ -879,9 +714,6 @@
     <t>Subsidiary</t>
   </si>
   <si>
-    <t>Percentage recycable materials</t>
-  </si>
-  <si>
     <t>Single-Select Radio Button</t>
   </si>
   <si>
@@ -930,9 +762,6 @@
     <t>Cubic Meters</t>
   </si>
   <si>
-    <t>Total nature-oriented area off-site previous year</t>
-  </si>
-  <si>
     <t>Pollution Emission</t>
   </si>
   <si>
@@ -972,81 +801,6 @@
     <t>Multiple Documents With Descriptions</t>
   </si>
   <si>
-    <t>Number female employees in FTEs</t>
-  </si>
-  <si>
-    <t>Number of accidents</t>
-  </si>
-  <si>
-    <t>Number of employees in FTEs</t>
-  </si>
-  <si>
-    <t>Number of employees in Headcount</t>
-  </si>
-  <si>
-    <t>Number of temporary contract employees in FTEs</t>
-  </si>
-  <si>
-    <t>Number of temporary contract employees in Headcount</t>
-  </si>
-  <si>
-    <t>Number of permanent contract employees in FTEs</t>
-  </si>
-  <si>
-    <t>Number of permanent contract employees in Headcount</t>
-  </si>
-  <si>
-    <t>Number of male employees in FTEs</t>
-  </si>
-  <si>
-    <t>Number of male employees in Headcount</t>
-  </si>
-  <si>
-    <t>Number of female employees in Headcount</t>
-  </si>
-  <si>
-    <t>Number of other employees in FTEs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of other employees head </t>
-  </si>
-  <si>
-    <t>Number of not reported epmloyees in FTEs</t>
-  </si>
-  <si>
-    <t>Number of not reported employees in Headcount</t>
-  </si>
-  <si>
-    <t>Number of total fatalities in FTEs</t>
-  </si>
-  <si>
-    <t>Number of total fatalities in Headcount</t>
-  </si>
-  <si>
-    <t>Number of fatalities of accidents in FTEs</t>
-  </si>
-  <si>
-    <t>Number of fatalities of accidents in Headcount</t>
-  </si>
-  <si>
-    <t>Number of health fatalities in FTEs</t>
-  </si>
-  <si>
-    <t>Number of health fatalities in Headcount</t>
-  </si>
-  <si>
-    <t>Numberof  minimum wage employees in FTEs</t>
-  </si>
-  <si>
-    <t>Numberof  minimum wage employees in Headcount</t>
-  </si>
-  <si>
-    <t>Percentage of minimum wage employees</t>
-  </si>
-  <si>
-    <t>Majority of minimum wage employees</t>
-  </si>
-  <si>
     <t>Please provide the minimum wage you pay.</t>
   </si>
   <si>
@@ -1060,6 +814,348 @@
   </si>
   <si>
     <t>Vsme Site And Area</t>
+  </si>
+  <si>
+    <t>Undertaken Measures</t>
+  </si>
+  <si>
+    <t>Electricity Total</t>
+  </si>
+  <si>
+    <t>Electricity Non-Renewable</t>
+  </si>
+  <si>
+    <t>Electricity Renewable</t>
+  </si>
+  <si>
+    <t>Total Aealed Area Previous Year</t>
+  </si>
+  <si>
+    <t>Total Sealed Area Reporting Year</t>
+  </si>
+  <si>
+    <t>Percentual Change Sealed Area</t>
+  </si>
+  <si>
+    <t>Total Nature-Oriented Area On-Site Reporting Year</t>
+  </si>
+  <si>
+    <t>Percentual Change Nature-Oriented On-Site</t>
+  </si>
+  <si>
+    <t>Total Nature-Oriented Area Off-Site Previous Year</t>
+  </si>
+  <si>
+    <t>Total Nature-Oriented Area Off-Site Reporting Year</t>
+  </si>
+  <si>
+    <t>Percentual Change Nature-Oriented Off-Site</t>
+  </si>
+  <si>
+    <t>Total Use Of Land Previous Year</t>
+  </si>
+  <si>
+    <t>Total Use Of Land Reporting Year</t>
+  </si>
+  <si>
+    <t>Percentual Change Land Use</t>
+  </si>
+  <si>
+    <t>Water Withdrawal All Sites</t>
+  </si>
+  <si>
+    <t>Water Withdrawal Stress Sites</t>
+  </si>
+  <si>
+    <t>Water Discharge All Sites</t>
+  </si>
+  <si>
+    <t>Water Discharge Stress Sites</t>
+  </si>
+  <si>
+    <t>Rainwater All Sites</t>
+  </si>
+  <si>
+    <t>Rainwater Stress Sites</t>
+  </si>
+  <si>
+    <t>Water Consumption All Sites</t>
+  </si>
+  <si>
+    <t>Water Consumption Stress Sites</t>
+  </si>
+  <si>
+    <t>Total Weight Materials</t>
+  </si>
+  <si>
+    <t>Weight Recycled Materials</t>
+  </si>
+  <si>
+    <t>Percentage Recycled Materials</t>
+  </si>
+  <si>
+    <t>Weight Recycable Materials</t>
+  </si>
+  <si>
+    <t>Percentage Recycable Materials</t>
+  </si>
+  <si>
+    <t>Measure Waste</t>
+  </si>
+  <si>
+    <t>Measure Employees</t>
+  </si>
+  <si>
+    <t>Number Of Employees In Headcount</t>
+  </si>
+  <si>
+    <t>Number Of Temporary Contract Employees In Headcount</t>
+  </si>
+  <si>
+    <t>Number Of Permanent Contract Employees In Headcount</t>
+  </si>
+  <si>
+    <t>Number Of Male Employees In Headcount</t>
+  </si>
+  <si>
+    <t>Number Of Female Employees In Headcount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number Of Other Employees In Headcount </t>
+  </si>
+  <si>
+    <t>Number Of Not Reported Employees In Headcount</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Number Of Accidents</t>
+  </si>
+  <si>
+    <t>Accident Level</t>
+  </si>
+  <si>
+    <t>Number Of Total Fatalities In Headcount</t>
+  </si>
+  <si>
+    <t>Number Of Fatalities Of Accidents In Headcount</t>
+  </si>
+  <si>
+    <t>Number Of Health Fatalities In Headcount</t>
+  </si>
+  <si>
+    <t>Number Of Minimum Wage Employees In Headcount</t>
+  </si>
+  <si>
+    <t>Percentage Of Minimum Wage Employees</t>
+  </si>
+  <si>
+    <t>Majority Of Minimum Wage Employees</t>
+  </si>
+  <si>
+    <t>Entry Level Wage</t>
+  </si>
+  <si>
+    <t>Minimum Wage</t>
+  </si>
+  <si>
+    <t>Wage Ratio</t>
+  </si>
+  <si>
+    <t>Pay Gap Basis</t>
+  </si>
+  <si>
+    <t>Gross Pay Male</t>
+  </si>
+  <si>
+    <t>Gross Pay Female</t>
+  </si>
+  <si>
+    <t>Total Work Hours Male</t>
+  </si>
+  <si>
+    <t>Total Work Hours Female</t>
+  </si>
+  <si>
+    <t>Average Work Hours Male</t>
+  </si>
+  <si>
+    <t>Average Work Hours Female</t>
+  </si>
+  <si>
+    <t>Average Hourly Pay Male</t>
+  </si>
+  <si>
+    <t>Average Hourly Pay Female</t>
+  </si>
+  <si>
+    <t>Pay Gap</t>
+  </si>
+  <si>
+    <t>Number Bargaining Agreements In Headcount</t>
+  </si>
+  <si>
+    <t>Ratio Bargaining Agreement</t>
+  </si>
+  <si>
+    <t>Total Training Hours Male</t>
+  </si>
+  <si>
+    <t>Total Training Hours Female</t>
+  </si>
+  <si>
+    <t>Average Training Hours Male</t>
+  </si>
+  <si>
+    <t>Average Training Hours Female</t>
+  </si>
+  <si>
+    <t>Negative Effects</t>
+  </si>
+  <si>
+    <t>Number Of Convictions</t>
+  </si>
+  <si>
+    <t>Sum Of Fines</t>
+  </si>
+  <si>
+    <t>Please provide the amount of electricity in MWh generated from renewable sources.</t>
+  </si>
+  <si>
+    <t>Please provide the amount of electricity in MWh generated from non renewable sources.</t>
+  </si>
+  <si>
+    <t>Hectare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please, report on the land-use of your company with respect to different kinds of surfaces/landscapes. Provide the corresponding values for the year before the reporting year, for the reporting year itself and the percentual change thereof. </t>
+  </si>
+  <si>
+    <t>Please, report on the land-use of your company with respect to different kinds of surfaces/landscapes. Provide the corresponding values for the year before the reporting year, for the reporting year itself and the percentual change thereof.</t>
+  </si>
+  <si>
+    <t>Please disclose your water withdrawal (in m^3) from sites with high water stress.</t>
+  </si>
+  <si>
+    <t>Please disclose your water discharge (in m^3) from sites with high water stress.</t>
+  </si>
+  <si>
+    <t>Please disclose the amount of rainwater (in m^3) for all sites.</t>
+  </si>
+  <si>
+    <t>Please disclose the amount of rainwater (in m^3) for all sites with high water stress.</t>
+  </si>
+  <si>
+    <t>Please disclose the amount of water consumption (in m^3) for all sites with high water stress.</t>
+  </si>
+  <si>
+    <t>Please disclose the amount of water consumption (in m^3) for all sites.</t>
+  </si>
+  <si>
+    <t>Please disclose the weight of recycled materials in tonnes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please disclose percentage of recycled materials in regards to the total weight of maerials. </t>
+  </si>
+  <si>
+    <t>Please disclose the weight of recycable materials in tonnes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please disclose percentage of recycable materials in regards to the total weight of maerials. </t>
+  </si>
+  <si>
+    <t>Please disclose the number of emplyees with a permanent contract. (Use full-time equivalents or head count according to your initial choice.)</t>
+  </si>
+  <si>
+    <t>Please disclose the number of not reported employees. (Use full-time equivalents or head count according to your initial choice.)</t>
+  </si>
+  <si>
+    <t>Please disclose the number of female employees. (Use full-time equivalents or head count according to your initial choice.)</t>
+  </si>
+  <si>
+    <t>Please disclose the number of other employees. (Use full-time equivalents or head count according to your initial choice.)</t>
+  </si>
+  <si>
+    <t>Please disclose the number of health fatalities in full time equilivants in the reporting year.</t>
+  </si>
+  <si>
+    <t>Please disclose the number of health fatalities in head count in the reporting year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now taking into account all your employees, according to your choice of timeframe, please provide the gross pay for male employees. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now taking into account all your employees, according to your choice of timeframe, please provide the gross pay for female employees. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taking into account all your employees and your choice of timeframe, please provide the number of average work hours (per week/year) by male employees. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taking into account all your employees and your choice of timeframe, please provide the number of average work hours (per week/year) by female employees. </t>
+  </si>
+  <si>
+    <t>Please state the total numbers of annual training hours per male employee, that are related to the development of skills and competences, whether acquired through formal or informal forms of capacity-building.</t>
+  </si>
+  <si>
+    <t>Please state the total numbers of annual training hours per female employee, that are related to the development of skills and competences, whether acquired through formal or informal forms of capacity-building.</t>
+  </si>
+  <si>
+    <t>Please state average numbers of annual training hours per male employee that are related to the development of skills and competences, whether acquired through formal or informal forms of capacity-building.</t>
+  </si>
+  <si>
+    <t>Please state average numbers of annual training hours per female employee that are related to the development of skills and competences, whether acquired through formal or informal forms of capacity-building.</t>
+  </si>
+  <si>
+    <t>Please disclose the sum of all fines.</t>
+  </si>
+  <si>
+    <t>Total Nature-Oriented Area On-Site Previous Year</t>
+  </si>
+  <si>
+    <t>Head Count</t>
+  </si>
+  <si>
+    <t>Tonnes</t>
+  </si>
+  <si>
+    <t>Full Time Equivalents</t>
+  </si>
+  <si>
+    <t>Number Of Temporary Contract Employees In FTE</t>
+  </si>
+  <si>
+    <t>Number Of Employees In FTE</t>
+  </si>
+  <si>
+    <t>Number Of Permanent Contract Employees In FTE</t>
+  </si>
+  <si>
+    <t>Number Of Male Employees In FTE</t>
+  </si>
+  <si>
+    <t>Number Female Employees In FTE</t>
+  </si>
+  <si>
+    <t>Number Of Other Employees In FTE</t>
+  </si>
+  <si>
+    <t>Number Of Not Reported Employees In FTE</t>
+  </si>
+  <si>
+    <t>Number Of Total Fatalities In FTE</t>
+  </si>
+  <si>
+    <t>Number Of Fatalities Of Accidents In FTE</t>
+  </si>
+  <si>
+    <t>Number Of Health Fatalities In FTE</t>
+  </si>
+  <si>
+    <t>Number of minimum Wage Employees In FTE</t>
+  </si>
+  <si>
+    <t>Number Bargaining Agreements  In FTE</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1230,6 +1326,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1237,7 +1342,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -1333,6 +1438,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1653,78 +1764,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE53926-978F-4910-9169-F720F1E0A6DD}">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1"/>
-    <col min="7" max="7" width="58.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.453125" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" customWidth="1"/>
+    <col min="7" max="7" width="58.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1746,25 +1857,25 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="27" t="s">
-        <v>329</v>
+        <v>247</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1774,55 +1885,55 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34">
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="27" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1832,29 +1943,29 @@
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="12"/>
@@ -1862,59 +1973,61 @@
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>20</v>
+        <v>220</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="11"/>
       <c r="M7" s="3"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>220</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>319</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
@@ -1922,27 +2035,29 @@
       <c r="M8" s="3"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>220</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>318</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="12"/>
@@ -1950,153 +2065,153 @@
       <c r="M9" s="3"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>28</v>
+      <c r="I10" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="11"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="11"/>
       <c r="M11" s="3"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="11"/>
       <c r="M12" s="3"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="11"/>
       <c r="M13" s="3"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="19" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2106,25 +2221,25 @@
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="31" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2134,81 +2249,85 @@
       <c r="M15" s="3"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>83</v>
+        <v>222</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>254</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="28" t="s">
+        <v>320</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>85</v>
+        <v>222</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>255</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>81</v>
+        <v>222</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>321</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -2218,81 +2337,85 @@
       <c r="M18" s="9"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>81</v>
+        <v>222</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>81</v>
+        <v>222</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>81</v>
+        <v>222</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>321</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2302,81 +2425,85 @@
       <c r="M21" s="9"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>81</v>
+        <v>222</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>81</v>
+        <v>222</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>321</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -2386,81 +2513,85 @@
       <c r="M24" s="9"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>101</v>
+        <v>222</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>262</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>103</v>
+        <v>222</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>263</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>81</v>
+        <v>222</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>322</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -2470,59 +2601,61 @@
       <c r="M27" s="9"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>107</v>
+        <v>228</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>265</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="29" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>323</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="29" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2530,29 +2663,29 @@
       <c r="M29" s="9"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="87.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="88" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>113</v>
+        <v>228</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>267</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="29" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -2560,27 +2693,29 @@
       <c r="M30" s="9"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>324</v>
+      </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="29" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2588,27 +2723,29 @@
       <c r="M31" s="9"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>325</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="29" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2616,27 +2753,29 @@
       <c r="M32" s="9"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>326</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="29" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2644,27 +2783,29 @@
       <c r="M33" s="9"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>328</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="29" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2672,27 +2813,29 @@
       <c r="M34" s="9"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>327</v>
+      </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="29" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -2700,29 +2843,29 @@
       <c r="M35" s="9"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B36" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="E36" s="9" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" s="9"/>
-      <c r="I36" s="9" t="s">
-        <v>128</v>
+      <c r="I36" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -2730,27 +2873,29 @@
       <c r="M36" s="9"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="9"/>
+        <v>227</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>329</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37" s="9"/>
-      <c r="I37" s="9" t="s">
-        <v>128</v>
+      <c r="I37" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -2758,23 +2903,25 @@
       <c r="M37" s="9"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="9"/>
+        <v>227</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>330</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -2784,27 +2931,29 @@
       <c r="M38" s="9"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="9"/>
+        <v>227</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>331</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="9" t="s">
-        <v>128</v>
+      <c r="I39" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -2812,23 +2961,25 @@
       <c r="M39" s="9"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>227</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>332</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -2838,28 +2989,28 @@
       <c r="M40" s="9"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>137</v>
+        <v>227</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="25" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="2"/>
@@ -2868,23 +3019,23 @@
       <c r="M41" s="9"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="8" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -2894,28 +3045,28 @@
       <c r="M42" s="9"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>162</v>
+        <v>226</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>279</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="25" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2924,485 +3075,501 @@
       <c r="M43" s="9"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H44" s="9"/>
-      <c r="I44" s="9" t="s">
-        <v>167</v>
+      <c r="I44" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H45" s="9"/>
-      <c r="I45" s="9" t="s">
-        <v>170</v>
+      <c r="I45" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L45" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46" s="9"/>
-      <c r="I46" s="9" t="s">
-        <v>167</v>
+      <c r="I46" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>173</v>
+        <v>281</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>146</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H47" s="9"/>
-      <c r="I47" s="9" t="s">
-        <v>170</v>
+      <c r="I47" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="E48" s="9"/>
+        <v>354</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>333</v>
+      </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" s="9"/>
-      <c r="I48" s="9" t="s">
-        <v>167</v>
+      <c r="I48" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L48" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C49" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="D49" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="28" t="s">
+        <v>333</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49" s="9"/>
-      <c r="I49" s="9" t="s">
-        <v>170</v>
+      <c r="I49" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L49" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="35" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H50" s="9"/>
-      <c r="I50" s="9" t="s">
-        <v>167</v>
+      <c r="I50" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H51" s="9"/>
-      <c r="I51" s="9" t="s">
-        <v>170</v>
+      <c r="I51" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L51" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="E52" s="9"/>
+        <v>356</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>335</v>
+      </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H52" s="9"/>
-      <c r="I52" s="9" t="s">
-        <v>167</v>
+      <c r="I52" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="E53" s="9"/>
+        <v>284</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>335</v>
+      </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53" s="9"/>
-      <c r="I53" s="9" t="s">
-        <v>170</v>
+      <c r="I53" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="E54" s="9"/>
+        <v>357</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>336</v>
+      </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54" s="9"/>
-      <c r="I54" s="9" t="s">
-        <v>167</v>
+      <c r="I54" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L54" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="E55" s="9"/>
+        <v>285</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>336</v>
+      </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55" s="9"/>
-      <c r="I55" s="9" t="s">
-        <v>170</v>
+      <c r="I55" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L55" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="35" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="E56" s="9"/>
+        <v>358</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>334</v>
+      </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H56" s="9"/>
-      <c r="I56" s="9" t="s">
-        <v>167</v>
+      <c r="I56" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L56" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="E57" s="9"/>
+        <v>286</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>334</v>
+      </c>
       <c r="F57" s="9"/>
       <c r="G57" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57" s="9"/>
-      <c r="I57" s="9" t="s">
-        <v>170</v>
+      <c r="I57" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L57" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="19" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -3412,29 +3579,29 @@
       <c r="M58" s="9"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>194</v>
+        <v>225</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>287</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -3442,25 +3609,25 @@
       <c r="M59" s="9"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -3470,25 +3637,25 @@
       <c r="M60" s="9"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>201</v>
+        <v>225</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>289</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -3498,293 +3665,297 @@
       <c r="M61" s="9"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="9" t="s">
-        <v>167</v>
+      <c r="I62" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L62" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="9" t="s">
-        <v>170</v>
+      <c r="I63" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L63" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="9" t="s">
-        <v>167</v>
+      <c r="I64" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L64" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="9" t="s">
-        <v>170</v>
+      <c r="I65" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L65" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="35" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="E66" s="9"/>
+        <v>361</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>337</v>
+      </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="H66" s="9"/>
-      <c r="I66" s="9" t="s">
-        <v>167</v>
+      <c r="I66" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L66" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="E67" s="9"/>
+        <v>292</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>338</v>
+      </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="9" t="s">
-        <v>170</v>
+      <c r="I67" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L67" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H68" s="9"/>
-      <c r="I68" s="9" t="s">
-        <v>167</v>
+      <c r="I68" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L68" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H69" s="9"/>
-      <c r="I69" s="9" t="s">
-        <v>170</v>
+      <c r="I69" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L69" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -3794,21 +3965,21 @@
       <c r="M70" s="9"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="34" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9" t="s">
@@ -3822,29 +3993,29 @@
       <c r="M71" s="9"/>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>217</v>
+        <v>224</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>296</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>328</v>
+        <v>246</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -3852,29 +4023,29 @@
       <c r="M72" s="9"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="34" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>297</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -3882,25 +4053,25 @@
       <c r="M73" s="9"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>298</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -3910,28 +4081,28 @@
       <c r="M74" s="9"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="34" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>299</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="25" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3939,296 +4110,302 @@
         <v>43</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>339</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="9" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="8">
         <v>43</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="34" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E77" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>340</v>
+      </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="8">
         <v>43</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>341</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="8">
         <v>43</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="34" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E79" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>342</v>
+      </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="9" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="8">
         <v>43</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>341</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="8">
         <v>43</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A81" s="34" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E81" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>342</v>
+      </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="8">
         <v>43</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>234</v>
+        <v>224</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>306</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="8">
         <v>43</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="34" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>307</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="8">
         <v>43</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>239</v>
+        <v>224</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>308</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
@@ -4237,98 +4414,98 @@
         <v>43</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="34" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>241</v>
+        <v>224</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>363</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="9" t="s">
-        <v>167</v>
+      <c r="I85" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L85" s="30" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>243</v>
+        <v>224</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>309</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H86" s="9"/>
-      <c r="I86" s="9" t="s">
-        <v>170</v>
+      <c r="I86" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L86" s="30" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="34" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>244</v>
+        <v>224</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>310</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
@@ -4338,29 +4515,29 @@
       <c r="M87" s="9"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>247</v>
+        <v>224</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>343</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="9" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -4368,27 +4545,29 @@
       <c r="M88" s="9"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A89" s="34" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E89" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>344</v>
+      </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="9" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -4396,27 +4575,29 @@
       <c r="M89" s="9"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A90" s="35" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E90" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>345</v>
+      </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="9" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -4424,27 +4605,29 @@
       <c r="M90" s="9"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A91" s="34" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="E91" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>346</v>
+      </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="9" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="9"/>
@@ -4452,25 +4635,25 @@
       <c r="M91" s="9"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="174" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>251</v>
+        <v>223</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>315</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="9" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
@@ -4480,25 +4663,25 @@
       <c r="M92" s="9"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" s="34" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>253</v>
+        <v>223</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>316</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
@@ -4508,24 +4691,27 @@
       <c r="M93" s="9"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>255</v>
+        <v>317</v>
+      </c>
+      <c r="E94" s="37" t="s">
+        <v>347</v>
       </c>
       <c r="G94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4543,97 +4729,97 @@
       <selection activeCell="E14" sqref="E11:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="30.21875" customWidth="1"/>
-    <col min="8" max="8" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="30.1796875" customWidth="1"/>
+    <col min="8" max="8" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="28" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -4648,194 +4834,194 @@
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
@@ -4853,71 +5039,71 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
@@ -4932,18 +5118,18 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
@@ -4958,23 +5144,23 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -4984,23 +5170,23 @@
       <c r="M4" s="3"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
       <c r="G5" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -5010,23 +5196,23 @@
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -5036,27 +5222,27 @@
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -5064,18 +5250,18 @@
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -5090,18 +5276,18 @@
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -5116,23 +5302,23 @@
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -5142,23 +5328,23 @@
       <c r="M10" s="9"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -5168,26 +5354,26 @@
       <c r="M11" s="9"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -5210,75 +5396,75 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" customWidth="1"/>
-    <col min="12" max="12" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" customWidth="1"/>
+    <col min="12" max="12" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -5288,66 +5474,66 @@
       <c r="M2" s="9"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
@@ -5366,73 +5552,73 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -5442,27 +5628,27 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="12"/>
@@ -5470,26 +5656,26 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="11"/>
@@ -5511,57 +5697,57 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="78.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="78.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5587,7 +5773,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>

--- a/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
+++ b/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\vsme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD1E6F-CD0B-4EB6-AC02-E0C9B3420C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ECEEF6-D5A3-4BF1-9030-CDE483C6B7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="365">
   <si>
     <t>1</t>
   </si>
@@ -85,10 +85,6 @@
     <t>Energy Fossil Fuels</t>
   </si>
   <si>
-    <t xml:space="preserve">Please disclose your total energy consumption in MWh (in the reporting period) for
-- fossil fuels </t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -96,9 +92,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>- electricity as reflected in utility billings. If available distinguish between renewable and non_x0002_renewable sources.</t>
   </si>
   <si>
     <t>5</t>
@@ -828,39 +821,24 @@
     <t>Electricity Renewable</t>
   </si>
   <si>
-    <t>Total Aealed Area Previous Year</t>
-  </si>
-  <si>
     <t>Total Sealed Area Reporting Year</t>
   </si>
   <si>
-    <t>Percentual Change Sealed Area</t>
-  </si>
-  <si>
     <t>Total Nature-Oriented Area On-Site Reporting Year</t>
   </si>
   <si>
-    <t>Percentual Change Nature-Oriented On-Site</t>
-  </si>
-  <si>
     <t>Total Nature-Oriented Area Off-Site Previous Year</t>
   </si>
   <si>
     <t>Total Nature-Oriented Area Off-Site Reporting Year</t>
   </si>
   <si>
-    <t>Percentual Change Nature-Oriented Off-Site</t>
-  </si>
-  <si>
     <t>Total Use Of Land Previous Year</t>
   </si>
   <si>
     <t>Total Use Of Land Reporting Year</t>
   </si>
   <si>
-    <t>Percentual Change Land Use</t>
-  </si>
-  <si>
     <t>Water Withdrawal All Sites</t>
   </si>
   <si>
@@ -1156,6 +1134,30 @@
   </si>
   <si>
     <t>Number Bargaining Agreements  In FTE</t>
+  </si>
+  <si>
+    <t>Please disclose your total energy consumption in MWh (in the reporting period) for fossil fuels.</t>
+  </si>
+  <si>
+    <t>Please disclose your total energy consumption in MWh (in the reporting period) for electricity as reflected in utility billings. If available distinguish between renewable and non_x0002_renewable sources.</t>
+  </si>
+  <si>
+    <t>Relative Change Sealed Area</t>
+  </si>
+  <si>
+    <t>Relative Change Nature-Oriented On-Site</t>
+  </si>
+  <si>
+    <t>Relative Change Nature-Oriented Off-Site</t>
+  </si>
+  <si>
+    <t>Total Sealed Area Previous Year</t>
+  </si>
+  <si>
+    <t>Relative Change Land Use</t>
+  </si>
+  <si>
+    <t>Please disclose the waste classification for every type of waste.</t>
   </si>
 </sst>
 </file>
@@ -1765,8 +1767,8 @@
   <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1787,43 +1789,43 @@
   <sheetData>
     <row r="1" spans="1:14" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>
@@ -1832,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1862,20 +1864,20 @@
         <v>11</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1890,50 +1892,50 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>240</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>242</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>219</v>
-      </c>
       <c r="D5" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1943,29 +1945,29 @@
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
+      <c r="E6" s="28" t="s">
+        <v>357</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="12"/>
@@ -1973,32 +1975,32 @@
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="11"/>
@@ -2007,27 +2009,27 @@
     </row>
     <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
@@ -2037,27 +2039,27 @@
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="12"/>
@@ -2067,30 +2069,30 @@
     </row>
     <row r="10" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="11"/>
@@ -2099,30 +2101,30 @@
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="11"/>
@@ -2131,30 +2133,30 @@
     </row>
     <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="11"/>
@@ -2163,30 +2165,30 @@
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="11"/>
@@ -2195,23 +2197,23 @@
     </row>
     <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2223,23 +2225,23 @@
     </row>
     <row r="15" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2251,27 +2253,27 @@
     </row>
     <row r="16" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="28" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -2281,27 +2283,27 @@
     </row>
     <row r="17" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -2311,23 +2313,23 @@
     </row>
     <row r="18" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>256</v>
+        <v>359</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -2339,27 +2341,27 @@
     </row>
     <row r="19" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -2369,27 +2371,27 @@
     </row>
     <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -2399,23 +2401,23 @@
     </row>
     <row r="21" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2427,27 +2429,27 @@
     </row>
     <row r="22" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -2457,27 +2459,27 @@
     </row>
     <row r="23" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2487,23 +2489,23 @@
     </row>
     <row r="24" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>261</v>
+        <v>361</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -2515,27 +2517,27 @@
     </row>
     <row r="25" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -2545,27 +2547,27 @@
     </row>
     <row r="26" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -2575,23 +2577,23 @@
     </row>
     <row r="27" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -2603,30 +2605,30 @@
     </row>
     <row r="28" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -2635,27 +2637,27 @@
     </row>
     <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2665,27 +2667,27 @@
     </row>
     <row r="30" spans="1:14" ht="88" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -2695,27 +2697,27 @@
     </row>
     <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2725,27 +2727,27 @@
     </row>
     <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2755,27 +2757,27 @@
     </row>
     <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2785,27 +2787,27 @@
     </row>
     <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2815,27 +2817,27 @@
     </row>
     <row r="35" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -2845,27 +2847,27 @@
     </row>
     <row r="36" spans="1:14" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="28" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -2875,27 +2877,27 @@
     </row>
     <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="28" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -2905,23 +2907,23 @@
     </row>
     <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -2933,27 +2935,27 @@
     </row>
     <row r="39" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="28" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -2963,23 +2965,23 @@
     </row>
     <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -2991,26 +2993,26 @@
     </row>
     <row r="41" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="2"/>
@@ -3021,21 +3023,23 @@
     </row>
     <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="E42" s="9"/>
+        <v>235</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>364</v>
+      </c>
       <c r="F42" s="9"/>
       <c r="G42" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -3047,26 +3051,26 @@
     </row>
     <row r="43" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3077,499 +3081,499 @@
     </row>
     <row r="44" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L45" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="2"/>
     </row>
     <row r="47" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L48" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L49" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L51" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L54" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L55" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L56" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L57" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -3581,27 +3585,27 @@
     </row>
     <row r="59" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -3611,23 +3615,23 @@
     </row>
     <row r="60" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -3639,23 +3643,23 @@
     </row>
     <row r="61" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -3667,295 +3671,295 @@
     </row>
     <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L62" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L63" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L64" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L65" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L66" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L67" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="2"/>
     </row>
     <row r="68" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L68" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L69" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -3967,19 +3971,19 @@
     </row>
     <row r="71" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9" t="s">
@@ -3995,27 +3999,27 @@
     </row>
     <row r="72" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -4025,27 +4029,27 @@
     </row>
     <row r="73" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -4055,23 +4059,23 @@
     </row>
     <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -4083,26 +4087,26 @@
     </row>
     <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4110,302 +4114,302 @@
         <v>43</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="8">
         <v>43</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="8">
         <v>43</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="8">
         <v>43</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="8">
         <v>43</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="8">
         <v>43</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A81" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="8">
         <v>43</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="8">
         <v>43</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="8">
         <v>43</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
@@ -4414,98 +4418,98 @@
         <v>43</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L85" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="28" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L86" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
@@ -4517,27 +4521,27 @@
     </row>
     <row r="88" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -4547,27 +4551,27 @@
     </row>
     <row r="89" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A89" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -4577,27 +4581,27 @@
     </row>
     <row r="90" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A90" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -4607,27 +4611,27 @@
     </row>
     <row r="91" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A91" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="9"/>
@@ -4637,23 +4641,23 @@
     </row>
     <row r="92" spans="1:14" ht="174" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
@@ -4665,23 +4669,23 @@
     </row>
     <row r="93" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
@@ -4693,25 +4697,25 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D94" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4738,70 +4742,70 @@
   <sheetData>
     <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -4810,16 +4814,16 @@
     </row>
     <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -4836,192 +4840,192 @@
     </row>
     <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
@@ -5052,58 +5056,58 @@
   <sheetData>
     <row r="1" spans="1:14" s="24" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
@@ -5120,16 +5124,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
@@ -5146,21 +5150,21 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -5172,21 +5176,21 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
       <c r="G5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -5198,21 +5202,21 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -5224,25 +5228,25 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -5252,16 +5256,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -5278,16 +5282,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -5304,21 +5308,21 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -5330,21 +5334,21 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -5356,24 +5360,24 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -5408,63 +5412,63 @@
   <sheetData>
     <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -5476,64 +5480,64 @@
     </row>
     <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
@@ -5562,63 +5566,63 @@
   <sheetData>
     <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -5630,25 +5634,25 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="12"/>
@@ -5658,24 +5662,24 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="11"/>
@@ -5707,43 +5711,43 @@
   <sheetData>
     <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="N1" s="21"/>
     </row>

--- a/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
+++ b/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\vsme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ECEEF6-D5A3-4BF1-9030-CDE483C6B7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B683D82-F0E7-468A-8107-60CAF4B922CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
   </bookViews>
@@ -872,12 +872,6 @@
     <t>Percentage Recycled Materials</t>
   </si>
   <si>
-    <t>Weight Recycable Materials</t>
-  </si>
-  <si>
-    <t>Percentage Recycable Materials</t>
-  </si>
-  <si>
     <t>Measure Waste</t>
   </si>
   <si>
@@ -1158,6 +1152,12 @@
   </si>
   <si>
     <t>Please disclose the waste classification for every type of waste.</t>
+  </si>
+  <si>
+    <t>Weight Recyclable Materials</t>
+  </si>
+  <si>
+    <t>Percentage Recyclable Materials</t>
   </si>
 </sst>
 </file>
@@ -1767,8 +1767,8 @@
   <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1959,7 +1959,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="3" t="s">
@@ -1989,7 +1989,7 @@
         <v>249</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="3" t="s">
@@ -2021,7 +2021,7 @@
         <v>250</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="3" t="s">
@@ -2051,7 +2051,7 @@
         <v>251</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="3" t="s">
@@ -2262,7 +2262,7 @@
         <v>220</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>75</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -2322,10 +2322,10 @@
         <v>220</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
@@ -2350,7 +2350,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>75</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -2410,10 +2410,10 @@
         <v>220</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2498,10 +2498,10 @@
         <v>220</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -2586,10 +2586,10 @@
         <v>220</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
@@ -2649,7 +2649,7 @@
         <v>259</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
@@ -2709,7 +2709,7 @@
         <v>261</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
@@ -2739,7 +2739,7 @@
         <v>262</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
@@ -2769,7 +2769,7 @@
         <v>263</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
@@ -2799,7 +2799,7 @@
         <v>264</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
@@ -2829,7 +2829,7 @@
         <v>265</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -2889,7 +2889,7 @@
         <v>267</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -2919,7 +2919,7 @@
         <v>268</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
@@ -2944,10 +2944,10 @@
         <v>225</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -2974,10 +2974,10 @@
         <v>225</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
@@ -3002,7 +3002,7 @@
         <v>225</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>109</v>
@@ -3035,7 +3035,7 @@
         <v>235</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="8" t="s">
@@ -3060,7 +3060,7 @@
         <v>224</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>134</v>
@@ -3090,7 +3090,7 @@
         <v>224</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>137</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="1" t="s">
@@ -3124,7 +3124,7 @@
         <v>224</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>137</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="1" t="s">
@@ -3158,7 +3158,7 @@
         <v>224</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>144</v>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="1" t="s">
@@ -3192,7 +3192,7 @@
         <v>224</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>144</v>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="1" t="s">
@@ -3226,10 +3226,10 @@
         <v>224</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9" t="s">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="1" t="s">
@@ -3260,10 +3260,10 @@
         <v>224</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9" t="s">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="1" t="s">
@@ -3294,7 +3294,7 @@
         <v>224</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>149</v>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="1" t="s">
@@ -3328,7 +3328,7 @@
         <v>224</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>149</v>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="1" t="s">
@@ -3362,10 +3362,10 @@
         <v>224</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="1" t="s">
@@ -3396,10 +3396,10 @@
         <v>224</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="1" t="s">
@@ -3430,10 +3430,10 @@
         <v>224</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9" t="s">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="1" t="s">
@@ -3464,10 +3464,10 @@
         <v>224</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="1" t="s">
@@ -3498,10 +3498,10 @@
         <v>224</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9" t="s">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="1" t="s">
@@ -3532,10 +3532,10 @@
         <v>224</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="19" t="s">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="1" t="s">
@@ -3594,7 +3594,7 @@
         <v>223</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>165</v>
@@ -3624,7 +3624,7 @@
         <v>223</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>168</v>
@@ -3652,7 +3652,7 @@
         <v>223</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>171</v>
@@ -3680,7 +3680,7 @@
         <v>223</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>173</v>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="1" t="s">
@@ -3714,7 +3714,7 @@
         <v>223</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>173</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="1" t="s">
@@ -3748,7 +3748,7 @@
         <v>223</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>176</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="1" t="s">
@@ -3782,7 +3782,7 @@
         <v>223</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>176</v>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="1" t="s">
@@ -3816,10 +3816,10 @@
         <v>223</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9" t="s">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="1" t="s">
@@ -3850,10 +3850,10 @@
         <v>223</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9" t="s">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="1" t="s">
@@ -3884,7 +3884,7 @@
         <v>222</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>181</v>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="1" t="s">
@@ -3918,7 +3918,7 @@
         <v>222</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>181</v>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="1" t="s">
@@ -3952,7 +3952,7 @@
         <v>222</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>184</v>
@@ -3980,7 +3980,7 @@
         <v>222</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>185</v>
@@ -4008,7 +4008,7 @@
         <v>222</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E72" s="28" t="s">
         <v>244</v>
@@ -4038,7 +4038,7 @@
         <v>222</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E73" s="28" t="s">
         <v>243</v>
@@ -4068,7 +4068,7 @@
         <v>222</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>187</v>
@@ -4096,7 +4096,7 @@
         <v>222</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>188</v>
@@ -4130,10 +4130,10 @@
         <v>222</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9" t="s">
@@ -4164,10 +4164,10 @@
         <v>222</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9" t="s">
@@ -4198,10 +4198,10 @@
         <v>222</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9" t="s">
@@ -4232,10 +4232,10 @@
         <v>222</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9" t="s">
@@ -4266,10 +4266,10 @@
         <v>222</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9" t="s">
@@ -4300,10 +4300,10 @@
         <v>222</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9" t="s">
@@ -4334,7 +4334,7 @@
         <v>222</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>191</v>
@@ -4368,7 +4368,7 @@
         <v>222</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>193</v>
@@ -4402,7 +4402,7 @@
         <v>222</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>194</v>
@@ -4434,7 +4434,7 @@
         <v>222</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>195</v>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="1" t="s">
@@ -4468,7 +4468,7 @@
         <v>222</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>195</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="1" t="s">
@@ -4502,7 +4502,7 @@
         <v>222</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>196</v>
@@ -4530,10 +4530,10 @@
         <v>222</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9" t="s">
@@ -4560,10 +4560,10 @@
         <v>222</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9" t="s">
@@ -4590,10 +4590,10 @@
         <v>222</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9" t="s">
@@ -4620,10 +4620,10 @@
         <v>222</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9" t="s">
@@ -4650,7 +4650,7 @@
         <v>221</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>197</v>
@@ -4678,7 +4678,7 @@
         <v>221</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>198</v>
@@ -4706,10 +4706,10 @@
         <v>221</v>
       </c>
       <c r="D94" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G94" t="s">
         <v>14</v>

--- a/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
+++ b/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92048\IdeaProjects\Dataland5\dataland-framework-toolbox\inputs\vsme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\vsme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B683D82-F0E7-468A-8107-60CAF4B922CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C9B9D-5E11-45ED-B233-9DB8CFCEBC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -375,9 +375,6 @@
     <t>Please, for each type of waste, provide your total annual generation of it (in tons or m^3) differentiating whether it is non-hazardous or hazardous. Also indicate the share of it diverted to recycling or reuse (in absolute numbers). First choose the unit you want to report in.</t>
   </si>
   <si>
-    <t>weight (preferred)|volume</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
   </si>
   <si>
     <t>You will be asked to provide information related to the number of your employees. How do you want to count them? Please stick to this measure for all the subsequent questions.</t>
-  </si>
-  <si>
-    <t>full-time equivalents|head count</t>
   </si>
   <si>
     <t>64</t>
@@ -1158,6 +1152,12 @@
   </si>
   <si>
     <t>Percentage Recyclable Materials</t>
+  </si>
+  <si>
+    <t>Full-Time Equivalents|Head Count</t>
+  </si>
+  <si>
+    <t>Weight (preferred)|Volume</t>
   </si>
 </sst>
 </file>
@@ -1766,78 +1766,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE53926-978F-4910-9169-F720F1E0A6DD}">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.453125" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="7" width="58.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" customWidth="1"/>
+    <col min="7" max="7" width="58.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1859,25 +1859,25 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1887,55 +1887,55 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>238</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>240</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>217</v>
-      </c>
       <c r="D5" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1945,21 +1945,21 @@
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="3" t="s">
@@ -1975,21 +1975,21 @@
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="3" t="s">
@@ -2000,28 +2000,28 @@
         <v>15</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="11"/>
       <c r="M7" s="3"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="3" t="s">
@@ -2037,21 +2037,21 @@
       <c r="M8" s="3"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="3" t="s">
@@ -2067,15 +2067,15 @@
       <c r="M9" s="3"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>20</v>
@@ -2092,22 +2092,22 @@
         <v>22</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="11"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
@@ -2124,22 +2124,22 @@
         <v>22</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="11"/>
       <c r="M11" s="3"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -2156,22 +2156,22 @@
         <v>22</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="11"/>
       <c r="M12" s="3"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -2188,32 +2188,32 @@
         <v>22</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="11"/>
       <c r="M13" s="3"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2223,25 +2223,25 @@
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2251,18 +2251,18 @@
       <c r="M15" s="3"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>75</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -2281,18 +2281,18 @@
       <c r="M16" s="9"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>75</v>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -2311,21 +2311,21 @@
       <c r="M17" s="9"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
@@ -2339,18 +2339,18 @@
       <c r="M18" s="9"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>75</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -2369,18 +2369,18 @@
       <c r="M19" s="9"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>75</v>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -2399,21 +2399,21 @@
       <c r="M20" s="9"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
@@ -2427,18 +2427,18 @@
       <c r="M21" s="9"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>75</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -2457,18 +2457,18 @@
       <c r="M22" s="9"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>75</v>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2487,21 +2487,21 @@
       <c r="M23" s="9"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
@@ -2515,18 +2515,18 @@
       <c r="M24" s="9"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>75</v>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -2545,18 +2545,18 @@
       <c r="M25" s="9"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>75</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -2575,21 +2575,21 @@
       <c r="M26" s="9"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
@@ -2603,18 +2603,18 @@
       <c r="M27" s="9"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>90</v>
@@ -2625,31 +2625,31 @@
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2665,21 +2665,21 @@
       <c r="M29" s="9"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="88" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
         <v>77</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -2695,21 +2695,21 @@
       <c r="M30" s="9"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2725,21 +2725,21 @@
       <c r="M31" s="9"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2755,21 +2755,21 @@
       <c r="M32" s="9"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2785,21 +2785,21 @@
       <c r="M33" s="9"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2815,21 +2815,21 @@
       <c r="M34" s="9"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>83</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -2845,18 +2845,18 @@
       <c r="M35" s="9"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>101</v>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -2875,21 +2875,21 @@
       <c r="M36" s="9"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -2905,21 +2905,21 @@
       <c r="M37" s="9"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
@@ -2933,21 +2933,21 @@
       <c r="M38" s="9"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
         <v>87</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -2963,21 +2963,21 @@
       <c r="M39" s="9"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
         <v>88</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
@@ -2991,28 +2991,28 @@
       <c r="M40" s="9"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
         <v>89</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>109</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>110</v>
+        <v>212</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>364</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="2"/>
@@ -3021,25 +3021,25 @@
       <c r="M41" s="9"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -3049,28 +3049,28 @@
       <c r="M42" s="9"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
         <v>93</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>135</v>
+        <v>212</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>363</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3079,21 +3079,21 @@
       <c r="M43" s="9"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
@@ -3101,33 +3101,33 @@
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
         <v>95</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
@@ -3135,33 +3135,33 @@
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L45" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
         <v>96</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
@@ -3169,33 +3169,33 @@
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
@@ -3203,33 +3203,33 @@
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9" t="s">
@@ -3237,33 +3237,33 @@
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L48" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
         <v>99</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9" t="s">
@@ -3271,33 +3271,33 @@
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L49" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
         <v>103</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
@@ -3305,33 +3305,33 @@
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
@@ -3339,33 +3339,33 @@
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L51" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
@@ -3373,33 +3373,33 @@
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="34" t="s">
         <v>106</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
@@ -3407,33 +3407,33 @@
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
         <v>107</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9" t="s">
@@ -3441,33 +3441,33 @@
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L54" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
@@ -3475,33 +3475,33 @@
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L55" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9" t="s">
@@ -3509,33 +3509,33 @@
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L56" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="19" t="s">
@@ -3543,37 +3543,37 @@
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L57" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -3583,21 +3583,21 @@
       <c r="M58" s="9"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -3613,25 +3613,25 @@
       <c r="M59" s="9"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -3641,21 +3641,21 @@
       <c r="M60" s="9"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9" t="s">
@@ -3669,225 +3669,225 @@
       <c r="M61" s="9"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L62" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L63" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L64" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L65" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L66" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L67" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
@@ -3895,33 +3895,33 @@
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L68" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9" t="s">
@@ -3929,33 +3929,33 @@
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L69" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9" t="s">
@@ -3969,21 +3969,21 @@
       <c r="M70" s="9"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9" t="s">
@@ -3997,21 +3997,21 @@
       <c r="M71" s="9"/>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9" t="s">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -4027,21 +4027,21 @@
       <c r="M72" s="9"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9" t="s">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -4057,21 +4057,21 @@
       <c r="M73" s="9"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9" t="s">
@@ -4085,28 +4085,28 @@
       <c r="M74" s="9"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4114,26 +4114,26 @@
         <v>43</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9" t="s">
@@ -4141,33 +4141,33 @@
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="8">
         <v>43</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9" t="s">
@@ -4175,33 +4175,33 @@
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="8">
         <v>43</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9" t="s">
@@ -4209,33 +4209,33 @@
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="8">
         <v>43</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9" t="s">
@@ -4243,33 +4243,33 @@
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="8">
         <v>43</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9" t="s">
@@ -4277,33 +4277,33 @@
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="8">
         <v>43</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9" t="s">
@@ -4311,33 +4311,33 @@
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="8">
         <v>43</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="9" t="s">
@@ -4345,33 +4345,33 @@
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="8">
         <v>43</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9" t="s">
@@ -4379,33 +4379,33 @@
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="8">
         <v>43</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="9" t="s">
@@ -4418,26 +4418,26 @@
         <v>43</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="9" t="s">
@@ -4445,33 +4445,33 @@
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L85" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9" t="s">
@@ -4479,33 +4479,33 @@
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L86" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9" t="s">
@@ -4519,21 +4519,21 @@
       <c r="M87" s="9"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9" t="s">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -4549,21 +4549,21 @@
       <c r="M88" s="9"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9" t="s">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -4579,21 +4579,21 @@
       <c r="M89" s="9"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9" t="s">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -4609,21 +4609,21 @@
       <c r="M90" s="9"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9" t="s">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="9"/>
@@ -4639,25 +4639,25 @@
       <c r="M91" s="9"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="1:14" ht="174" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A92" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
@@ -4667,21 +4667,21 @@
       <c r="M92" s="9"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="9" t="s">
@@ -4695,27 +4695,27 @@
       <c r="M93" s="9"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G94" t="s">
         <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4733,58 +4733,58 @@
       <selection activeCell="E14" sqref="E11:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="30.1796875" customWidth="1"/>
-    <col min="8" max="8" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" customWidth="1"/>
+    <col min="8" max="8" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -4801,20 +4801,20 @@
         <v>72</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -4823,7 +4823,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -4838,9 +4838,9 @@
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -4849,7 +4849,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -4865,14 +4865,14 @@
         <v>108</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -4881,7 +4881,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -4897,14 +4897,14 @@
         <v>108</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -4913,7 +4913,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -4929,14 +4929,14 @@
         <v>108</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -4945,7 +4945,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -4961,14 +4961,14 @@
         <v>108</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -4993,14 +4993,14 @@
         <v>108</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -5009,7 +5009,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -5025,7 +5025,7 @@
         <v>108</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
@@ -5043,60 +5043,60 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.90625" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="7" max="7" width="47.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5122,7 +5122,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -5174,7 +5174,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -5200,7 +5200,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -5226,7 +5226,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -5254,7 +5254,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -5280,7 +5280,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -5358,7 +5358,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -5400,67 +5400,67 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="33.81640625" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" customWidth="1"/>
-    <col min="12" max="12" width="28.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>57</v>
@@ -5478,18 +5478,18 @@
       <c r="M2" s="9"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -5498,30 +5498,30 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -5530,14 +5530,14 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
@@ -5556,57 +5556,57 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" customWidth="1"/>
-    <col min="8" max="8" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -5660,7 +5660,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -5701,57 +5701,57 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="78.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="78.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5777,7 +5777,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>

--- a/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
+++ b/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\vsme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\vsme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C9B9D-5E11-45ED-B233-9DB8CFCEBC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72725828-2B2D-48F7-B6B6-7716EF0477D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
+    <workbookView xWindow="57480" yWindow="-5145" windowWidth="29040" windowHeight="15720" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Pollution" sheetId="3" r:id="rId5"/>
     <sheet name="Subsidiaries" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="366">
   <si>
     <t>1</t>
   </si>
@@ -1158,6 +1158,9 @@
   </si>
   <si>
     <t>Weight (preferred)|Volume</t>
+  </si>
+  <si>
+    <t>Alias Export</t>
   </si>
 </sst>
 </file>
@@ -1764,30 +1767,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE53926-978F-4910-9169-F720F1E0A6DD}">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1"/>
-    <col min="7" max="7" width="58.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="5" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.453125" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" customWidth="1"/>
+    <col min="8" max="8" width="58.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -1800,36 +1803,39 @@
       <c r="D1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="N1" s="21"/>
-    </row>
-    <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -1842,24 +1848,27 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="2"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
@@ -1872,22 +1881,25 @@
       <c r="D3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="2"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -1901,23 +1913,26 @@
         <v>235</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="H4" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32" t="s">
-        <v>239</v>
-      </c>
+      <c r="I4" s="32"/>
       <c r="J4" s="32" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K4" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>16</v>
       </c>
@@ -1930,22 +1945,25 @@
       <c r="D5" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>17</v>
       </c>
@@ -1958,24 +1976,27 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="K6" s="2"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>18</v>
       </c>
@@ -1988,26 +2009,29 @@
       <c r="D7" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L7" s="12"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>19</v>
       </c>
@@ -2020,24 +2044,27 @@
       <c r="D8" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
@@ -2050,24 +2077,27 @@
       <c r="D9" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
@@ -2080,26 +2110,29 @@
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="27" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L10" s="12"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
@@ -2112,26 +2145,29 @@
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>32</v>
       </c>
@@ -2144,26 +2180,29 @@
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L12" s="12"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>35</v>
       </c>
@@ -2176,26 +2215,29 @@
       <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L13" s="12"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
         <v>38</v>
       </c>
@@ -2208,22 +2250,25 @@
       <c r="D14" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="K14" s="3"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>41</v>
       </c>
@@ -2236,22 +2281,25 @@
       <c r="D15" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="J15" s="3"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
         <v>45</v>
       </c>
@@ -2264,24 +2312,27 @@
       <c r="D16" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="28" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N16" s="9"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>48</v>
       </c>
@@ -2294,24 +2345,27 @@
       <c r="D17" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N17" s="9"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
         <v>50</v>
       </c>
@@ -2325,21 +2379,24 @@
         <v>355</v>
       </c>
       <c r="E18" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N18" s="9"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>52</v>
       </c>
@@ -2353,23 +2410,26 @@
         <v>337</v>
       </c>
       <c r="E19" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N19" s="9"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
         <v>54</v>
       </c>
@@ -2383,23 +2443,26 @@
         <v>251</v>
       </c>
       <c r="E20" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N20" s="9"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
         <v>56</v>
       </c>
@@ -2413,21 +2476,24 @@
         <v>356</v>
       </c>
       <c r="E21" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N21" s="9"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
         <v>59</v>
       </c>
@@ -2440,24 +2506,27 @@
       <c r="D22" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N22" s="9"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
         <v>62</v>
       </c>
@@ -2471,23 +2540,26 @@
         <v>253</v>
       </c>
       <c r="E23" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N23" s="9"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
         <v>64</v>
       </c>
@@ -2501,21 +2573,24 @@
         <v>357</v>
       </c>
       <c r="E24" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N24" s="9"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
         <v>66</v>
       </c>
@@ -2528,24 +2603,27 @@
       <c r="D25" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N25" s="9"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
         <v>68</v>
       </c>
@@ -2558,24 +2636,27 @@
       <c r="D26" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N26" s="9"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
         <v>70</v>
       </c>
@@ -2589,21 +2670,24 @@
         <v>359</v>
       </c>
       <c r="E27" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="F27" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="N27" s="9"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
         <v>74</v>
       </c>
@@ -2616,26 +2700,29 @@
       <c r="D28" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="29" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="K28" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N28" s="9"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
         <v>76</v>
       </c>
@@ -2649,23 +2736,26 @@
         <v>257</v>
       </c>
       <c r="E29" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="29" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" ht="87.6" x14ac:dyDescent="0.3">
+      <c r="N29" s="9"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="88" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
         <v>77</v>
       </c>
@@ -2678,24 +2768,27 @@
       <c r="D30" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="29" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N30" s="9"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
         <v>78</v>
       </c>
@@ -2709,23 +2802,26 @@
         <v>259</v>
       </c>
       <c r="E31" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="29" t="s">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N31" s="9"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
         <v>80</v>
       </c>
@@ -2739,23 +2835,26 @@
         <v>260</v>
       </c>
       <c r="E32" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="29" t="s">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N32" s="9"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>81</v>
       </c>
@@ -2769,23 +2868,26 @@
         <v>261</v>
       </c>
       <c r="E33" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="29" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N33" s="9"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
         <v>82</v>
       </c>
@@ -2799,23 +2901,26 @@
         <v>262</v>
       </c>
       <c r="E34" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="29" t="s">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N34" s="9"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>83</v>
       </c>
@@ -2829,23 +2934,26 @@
         <v>263</v>
       </c>
       <c r="E35" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="29" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="N35" s="9"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
         <v>84</v>
       </c>
@@ -2858,24 +2966,27 @@
       <c r="D36" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="28" t="s">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N36" s="9"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>85</v>
       </c>
@@ -2889,23 +3000,26 @@
         <v>265</v>
       </c>
       <c r="E37" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="28" t="s">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N37" s="9"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
         <v>86</v>
       </c>
@@ -2919,21 +3033,24 @@
         <v>266</v>
       </c>
       <c r="E38" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N38" s="9"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>87</v>
       </c>
@@ -2947,23 +3064,26 @@
         <v>361</v>
       </c>
       <c r="E39" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="F39" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="28" t="s">
+      <c r="G39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N39" s="9"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
         <v>88</v>
       </c>
@@ -2977,21 +3097,24 @@
         <v>362</v>
       </c>
       <c r="E40" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="F40" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N40" s="9"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
         <v>89</v>
       </c>
@@ -3004,24 +3127,27 @@
       <c r="D41" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="9"/>
+      <c r="H41" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="I41" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="2"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N41" s="9"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
         <v>92</v>
       </c>
@@ -3035,21 +3161,24 @@
         <v>233</v>
       </c>
       <c r="E42" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="9"/>
+      <c r="H42" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="N42" s="9"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
         <v>93</v>
       </c>
@@ -3062,24 +3191,27 @@
       <c r="D43" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="I43" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L43" s="9"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
         <v>94</v>
       </c>
@@ -3092,28 +3224,31 @@
       <c r="D44" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="28" t="s">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="9"/>
+      <c r="L44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L44" s="30" t="s">
+      <c r="M44" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N44" s="9"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
         <v>95</v>
       </c>
@@ -3126,28 +3261,31 @@
       <c r="D45" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="28" t="s">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="9"/>
+      <c r="L45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L45" s="30" t="s">
+      <c r="M45" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M45" s="9"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N45" s="9"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
         <v>96</v>
       </c>
@@ -3160,28 +3298,31 @@
       <c r="D46" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="28" t="s">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L46" s="30" t="s">
+      <c r="M46" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N46" s="9"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
         <v>97</v>
       </c>
@@ -3195,27 +3336,30 @@
         <v>270</v>
       </c>
       <c r="E47" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="28" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="9"/>
+      <c r="L47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L47" s="30" t="s">
+      <c r="M47" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N47" s="9"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
         <v>98</v>
       </c>
@@ -3229,27 +3373,30 @@
         <v>343</v>
       </c>
       <c r="E48" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="F48" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="28" t="s">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="9"/>
+      <c r="L48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L48" s="30" t="s">
+      <c r="M48" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M48" s="9"/>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N48" s="9"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
         <v>99</v>
       </c>
@@ -3263,27 +3410,30 @@
         <v>271</v>
       </c>
       <c r="E49" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F49" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="28" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="9"/>
+      <c r="L49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L49" s="30" t="s">
+      <c r="M49" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M49" s="9"/>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N49" s="9"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="35" t="s">
         <v>103</v>
       </c>
@@ -3296,28 +3446,31 @@
       <c r="D50" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="28" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="1" t="s">
+      <c r="K50" s="9"/>
+      <c r="L50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L50" s="30" t="s">
+      <c r="M50" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N50" s="9"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
         <v>104</v>
       </c>
@@ -3330,28 +3483,31 @@
       <c r="D51" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="28" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="1" t="s">
+      <c r="K51" s="9"/>
+      <c r="L51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L51" s="30" t="s">
+      <c r="M51" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M51" s="9"/>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N51" s="9"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
         <v>105</v>
       </c>
@@ -3365,27 +3521,30 @@
         <v>345</v>
       </c>
       <c r="E52" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="F52" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="28" t="s">
+      <c r="G52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="1" t="s">
+      <c r="K52" s="9"/>
+      <c r="L52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L52" s="30" t="s">
+      <c r="M52" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M52" s="9"/>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N52" s="9"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
         <v>106</v>
       </c>
@@ -3399,27 +3558,30 @@
         <v>273</v>
       </c>
       <c r="E53" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="F53" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="28" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="1" t="s">
+      <c r="K53" s="9"/>
+      <c r="L53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L53" s="30" t="s">
+      <c r="M53" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M53" s="9"/>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N53" s="9"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
         <v>107</v>
       </c>
@@ -3433,27 +3595,30 @@
         <v>346</v>
       </c>
       <c r="E54" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="28" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="9"/>
+      <c r="L54" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L54" s="30" t="s">
+      <c r="M54" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M54" s="9"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N54" s="9"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
         <v>110</v>
       </c>
@@ -3467,27 +3632,30 @@
         <v>274</v>
       </c>
       <c r="E55" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="28" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="9"/>
+      <c r="L55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L55" s="30" t="s">
+      <c r="M55" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M55" s="9"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N55" s="9"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="35" t="s">
         <v>111</v>
       </c>
@@ -3501,27 +3669,30 @@
         <v>347</v>
       </c>
       <c r="E56" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="F56" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="28" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="1" t="s">
+      <c r="K56" s="9"/>
+      <c r="L56" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L56" s="30" t="s">
+      <c r="M56" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M56" s="9"/>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N56" s="9"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
         <v>114</v>
       </c>
@@ -3535,27 +3706,30 @@
         <v>275</v>
       </c>
       <c r="E57" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F57" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="28" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="1" t="s">
+      <c r="K57" s="9"/>
+      <c r="L57" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L57" s="30" t="s">
+      <c r="M57" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M57" s="9"/>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N57" s="9"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
         <v>116</v>
       </c>
@@ -3568,22 +3742,25 @@
       <c r="D58" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-      <c r="N58" s="2"/>
-    </row>
-    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N58" s="9"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
         <v>119</v>
       </c>
@@ -3596,24 +3773,27 @@
       <c r="D59" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9" t="s">
+      <c r="G59" s="9"/>
+      <c r="H59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="2"/>
-    </row>
-    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N59" s="9"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
         <v>122</v>
       </c>
@@ -3626,22 +3806,25 @@
       <c r="D60" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="9"/>
+      <c r="H60" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
-      <c r="N60" s="2"/>
-    </row>
-    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="N60" s="9"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
         <v>124</v>
       </c>
@@ -3654,22 +3837,25 @@
       <c r="D61" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="2"/>
-    </row>
-    <row r="62" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L61" s="9"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
         <v>126</v>
       </c>
@@ -3682,28 +3868,31 @@
       <c r="D62" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="28" t="s">
+      <c r="I62" s="9"/>
+      <c r="J62" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="1" t="s">
+      <c r="K62" s="9"/>
+      <c r="L62" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L62" s="30" t="s">
+      <c r="M62" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M62" s="9"/>
-      <c r="N62" s="2"/>
-    </row>
-    <row r="63" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N62" s="9"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
         <v>128</v>
       </c>
@@ -3716,28 +3905,31 @@
       <c r="D63" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="28" t="s">
+      <c r="I63" s="9"/>
+      <c r="J63" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="1" t="s">
+      <c r="K63" s="9"/>
+      <c r="L63" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L63" s="30" t="s">
+      <c r="M63" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M63" s="9"/>
-      <c r="N63" s="2"/>
-    </row>
-    <row r="64" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N63" s="9"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
         <v>130</v>
       </c>
@@ -3750,28 +3942,31 @@
       <c r="D64" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="9"/>
+      <c r="H64" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="28" t="s">
+      <c r="I64" s="9"/>
+      <c r="J64" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="9"/>
+      <c r="L64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L64" s="30" t="s">
+      <c r="M64" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M64" s="9"/>
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N64" s="9"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
         <v>134</v>
       </c>
@@ -3784,28 +3979,31 @@
       <c r="D65" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="9"/>
+      <c r="H65" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="28" t="s">
+      <c r="I65" s="9"/>
+      <c r="J65" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="9"/>
+      <c r="L65" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L65" s="30" t="s">
+      <c r="M65" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M65" s="9"/>
-      <c r="N65" s="2"/>
-    </row>
-    <row r="66" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N65" s="9"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="35" t="s">
         <v>138</v>
       </c>
@@ -3819,27 +4017,30 @@
         <v>350</v>
       </c>
       <c r="E66" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="F66" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="28" t="s">
+      <c r="I66" s="9"/>
+      <c r="J66" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="9"/>
+      <c r="L66" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L66" s="30" t="s">
+      <c r="M66" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M66" s="9"/>
-      <c r="N66" s="2"/>
-    </row>
-    <row r="67" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N66" s="9"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
         <v>141</v>
       </c>
@@ -3853,27 +4054,30 @@
         <v>281</v>
       </c>
       <c r="E67" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="F67" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="28" t="s">
+      <c r="I67" s="9"/>
+      <c r="J67" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="1" t="s">
+      <c r="K67" s="9"/>
+      <c r="L67" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L67" s="30" t="s">
+      <c r="M67" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M67" s="9"/>
-      <c r="N67" s="2"/>
-    </row>
-    <row r="68" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N67" s="9"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
         <v>143</v>
       </c>
@@ -3886,28 +4090,31 @@
       <c r="D68" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="28" t="s">
+      <c r="G68" s="9"/>
+      <c r="H68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="1" t="s">
+      <c r="K68" s="9"/>
+      <c r="L68" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L68" s="30" t="s">
+      <c r="M68" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M68" s="9"/>
-      <c r="N68" s="2"/>
-    </row>
-    <row r="69" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N68" s="9"/>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>144</v>
       </c>
@@ -3920,28 +4127,31 @@
       <c r="D69" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="28" t="s">
+      <c r="G69" s="9"/>
+      <c r="H69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="1" t="s">
+      <c r="K69" s="9"/>
+      <c r="L69" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L69" s="30" t="s">
+      <c r="M69" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M69" s="9"/>
-      <c r="N69" s="2"/>
-    </row>
-    <row r="70" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N69" s="9"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
         <v>145</v>
       </c>
@@ -3954,22 +4164,25 @@
       <c r="D70" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
-      <c r="N70" s="2"/>
-    </row>
-    <row r="71" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N70" s="9"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="34" t="s">
         <v>146</v>
       </c>
@@ -3982,22 +4195,25 @@
       <c r="D71" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
-      <c r="N71" s="2"/>
-    </row>
-    <row r="72" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N71" s="9"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
         <v>148</v>
       </c>
@@ -4011,23 +4227,26 @@
         <v>285</v>
       </c>
       <c r="E72" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="F72" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9" t="s">
+      <c r="G72" s="9"/>
+      <c r="H72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
-      <c r="N72" s="2"/>
-    </row>
-    <row r="73" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N72" s="9"/>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="34" t="s">
         <v>149</v>
       </c>
@@ -4041,23 +4260,26 @@
         <v>286</v>
       </c>
       <c r="E73" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="F73" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
-      <c r="N73" s="2"/>
-    </row>
-    <row r="74" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N73" s="9"/>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
         <v>150</v>
       </c>
@@ -4070,22 +4292,25 @@
       <c r="D74" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="F74" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="8"/>
       <c r="M74" s="9"/>
-      <c r="N74" s="2"/>
-    </row>
-    <row r="75" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N74" s="9"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="34" t="s">
         <v>151</v>
       </c>
@@ -4098,28 +4323,31 @@
       <c r="D75" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="I75" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="8">
+      <c r="K75" s="9"/>
+      <c r="L75" s="8">
         <v>43</v>
       </c>
-      <c r="L75" s="9" t="s">
+      <c r="M75" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M75" s="9"/>
-      <c r="N75" s="2"/>
-    </row>
-    <row r="76" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N75" s="9"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
         <v>152</v>
       </c>
@@ -4133,27 +4361,30 @@
         <v>289</v>
       </c>
       <c r="E76" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="F76" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9" t="s">
+      <c r="G76" s="9"/>
+      <c r="H76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="8">
+      <c r="K76" s="9"/>
+      <c r="L76" s="8">
         <v>43</v>
       </c>
-      <c r="L76" s="9" t="s">
+      <c r="M76" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M76" s="9"/>
-      <c r="N76" s="2"/>
-    </row>
-    <row r="77" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N76" s="9"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="34" t="s">
         <v>153</v>
       </c>
@@ -4167,27 +4398,30 @@
         <v>290</v>
       </c>
       <c r="E77" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="F77" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="8">
+      <c r="K77" s="9"/>
+      <c r="L77" s="8">
         <v>43</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="M77" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M77" s="9"/>
-      <c r="N77" s="2"/>
-    </row>
-    <row r="78" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N77" s="9"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
         <v>154</v>
       </c>
@@ -4201,27 +4435,30 @@
         <v>291</v>
       </c>
       <c r="E78" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="F78" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="8">
+      <c r="K78" s="9"/>
+      <c r="L78" s="8">
         <v>43</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="M78" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M78" s="9"/>
-      <c r="N78" s="2"/>
-    </row>
-    <row r="79" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N78" s="9"/>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="34" t="s">
         <v>155</v>
       </c>
@@ -4235,27 +4472,30 @@
         <v>292</v>
       </c>
       <c r="E79" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F79" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="8">
+      <c r="K79" s="9"/>
+      <c r="L79" s="8">
         <v>43</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="M79" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M79" s="9"/>
-      <c r="N79" s="2"/>
-    </row>
-    <row r="80" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N79" s="9"/>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
         <v>157</v>
       </c>
@@ -4269,27 +4509,30 @@
         <v>293</v>
       </c>
       <c r="E80" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F80" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9" t="s">
+      <c r="G80" s="9"/>
+      <c r="H80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J80" s="9"/>
-      <c r="K80" s="8">
+      <c r="K80" s="9"/>
+      <c r="L80" s="8">
         <v>43</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="M80" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M80" s="9"/>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N80" s="9"/>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A81" s="34" t="s">
         <v>158</v>
       </c>
@@ -4303,27 +4546,30 @@
         <v>294</v>
       </c>
       <c r="E81" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F81" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="8">
+      <c r="K81" s="9"/>
+      <c r="L81" s="8">
         <v>43</v>
       </c>
-      <c r="L81" s="9" t="s">
+      <c r="M81" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M81" s="9"/>
-      <c r="N81" s="2"/>
-    </row>
-    <row r="82" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N81" s="9"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
         <v>160</v>
       </c>
@@ -4336,28 +4582,31 @@
       <c r="D82" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J82" s="9"/>
-      <c r="K82" s="8">
+      <c r="K82" s="9"/>
+      <c r="L82" s="8">
         <v>43</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="M82" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M82" s="9"/>
-      <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N82" s="9"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="34" t="s">
         <v>162</v>
       </c>
@@ -4370,28 +4619,31 @@
       <c r="D83" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="F83" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J83" s="9"/>
-      <c r="K83" s="8">
+      <c r="K83" s="9"/>
+      <c r="L83" s="8">
         <v>43</v>
       </c>
-      <c r="L83" s="9" t="s">
+      <c r="M83" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M83" s="9"/>
-      <c r="N83" s="2"/>
-    </row>
-    <row r="84" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N83" s="9"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
         <v>165</v>
       </c>
@@ -4404,26 +4656,29 @@
       <c r="D84" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="9">
+      <c r="K84" s="9"/>
+      <c r="L84" s="9">
         <v>43</v>
       </c>
-      <c r="L84" s="18" t="s">
+      <c r="M84" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="M84" s="9"/>
-      <c r="N84" s="2"/>
-    </row>
-    <row r="85" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N84" s="9"/>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="34" t="s">
         <v>168</v>
       </c>
@@ -4436,28 +4691,31 @@
       <c r="D85" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="F85" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="28" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J85" s="9"/>
-      <c r="K85" s="1" t="s">
+      <c r="K85" s="9"/>
+      <c r="L85" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L85" s="30" t="s">
+      <c r="M85" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M85" s="9"/>
-      <c r="N85" s="2"/>
-    </row>
-    <row r="86" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N85" s="9"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
         <v>170</v>
       </c>
@@ -4470,28 +4728,31 @@
       <c r="D86" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="9"/>
-      <c r="I86" s="28" t="s">
+      <c r="G86" s="9"/>
+      <c r="H86" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J86" s="9"/>
-      <c r="K86" s="1" t="s">
+      <c r="K86" s="9"/>
+      <c r="L86" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L86" s="30" t="s">
+      <c r="M86" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M86" s="9"/>
-      <c r="N86" s="2"/>
-    </row>
-    <row r="87" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N86" s="9"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="34" t="s">
         <v>172</v>
       </c>
@@ -4504,22 +4765,25 @@
       <c r="D87" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="F87" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="9"/>
+      <c r="H87" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
-      <c r="N87" s="2"/>
-    </row>
-    <row r="88" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N87" s="9"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
         <v>173</v>
       </c>
@@ -4533,23 +4797,26 @@
         <v>300</v>
       </c>
       <c r="E88" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="F88" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9" t="s">
+      <c r="G88" s="9"/>
+      <c r="H88" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
-      <c r="N88" s="2"/>
-    </row>
-    <row r="89" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N88" s="9"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A89" s="34" t="s">
         <v>175</v>
       </c>
@@ -4563,23 +4830,26 @@
         <v>301</v>
       </c>
       <c r="E89" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="F89" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9" t="s">
+      <c r="G89" s="9"/>
+      <c r="H89" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
-      <c r="N89" s="2"/>
-    </row>
-    <row r="90" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N89" s="9"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A90" s="35" t="s">
         <v>176</v>
       </c>
@@ -4593,23 +4863,26 @@
         <v>302</v>
       </c>
       <c r="E90" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F90" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
-      <c r="N90" s="2"/>
-    </row>
-    <row r="91" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N90" s="9"/>
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A91" s="34" t="s">
         <v>177</v>
       </c>
@@ -4623,23 +4896,26 @@
         <v>303</v>
       </c>
       <c r="E91" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F91" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9" t="s">
+      <c r="G91" s="9"/>
+      <c r="H91" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J91" s="2"/>
-      <c r="K91" s="9"/>
+      <c r="K91" s="2"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
-      <c r="N91" s="2"/>
-    </row>
-    <row r="92" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="N91" s="9"/>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="1:15" ht="174" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
         <v>178</v>
       </c>
@@ -4652,22 +4928,25 @@
       <c r="D92" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="F92" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="9"/>
+      <c r="H92" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
-      <c r="N92" s="2"/>
-    </row>
-    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="N92" s="9"/>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" s="34" t="s">
         <v>180</v>
       </c>
@@ -4680,22 +4959,25 @@
       <c r="D93" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="F93" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
-      <c r="N93" s="2"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N93" s="9"/>
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
         <v>181</v>
       </c>
@@ -4708,13 +4990,16 @@
       <c r="D94" t="s">
         <v>306</v>
       </c>
-      <c r="E94" s="37" t="s">
+      <c r="E94" t="s">
+        <v>306</v>
+      </c>
+      <c r="F94" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="G94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4733,14 +5018,14 @@
       <selection activeCell="E14" sqref="E11:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="30.21875" customWidth="1"/>
-    <col min="8" max="8" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="30.1796875" customWidth="1"/>
+    <col min="8" max="8" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -4782,7 +5067,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -4812,7 +5097,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -4838,7 +5123,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>116</v>
       </c>
@@ -4870,7 +5155,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
@@ -4902,7 +5187,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
@@ -4934,7 +5219,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -4966,7 +5251,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
@@ -4998,7 +5283,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>128</v>
       </c>
@@ -5043,18 +5328,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5096,7 +5381,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5122,7 +5407,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -5148,7 +5433,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -5174,7 +5459,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -5200,7 +5485,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -5226,7 +5511,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -5254,7 +5539,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -5280,7 +5565,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -5306,7 +5591,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -5332,7 +5617,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -5358,7 +5643,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -5400,17 +5685,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" customWidth="1"/>
-    <col min="12" max="12" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" customWidth="1"/>
+    <col min="12" max="12" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5452,7 +5737,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
@@ -5478,7 +5763,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>158</v>
       </c>
@@ -5510,7 +5795,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
@@ -5556,15 +5841,15 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5606,7 +5891,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -5632,7 +5917,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -5660,7 +5945,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -5701,15 +5986,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="78.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="78.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5751,7 +6036,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5777,7 +6062,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>

--- a/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
+++ b/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\vsme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72725828-2B2D-48F7-B6B6-7716EF0477D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD7DB3-056B-4F48-94D6-566149040822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-5145" windowWidth="29040" windowHeight="15720" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
+    <workbookView xWindow="-28020" yWindow="975" windowWidth="21600" windowHeight="11175" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="366">
   <si>
     <t>1</t>
   </si>
@@ -1471,9 +1471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1511,7 +1511,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1617,7 +1617,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1759,7 +1759,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1770,27 +1770,27 @@
   <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="5" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.453125" customWidth="1"/>
-    <col min="7" max="7" width="27.1796875" customWidth="1"/>
-    <col min="8" max="8" width="58.54296875" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="58.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="O1" s="21"/>
     </row>
-    <row r="2" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -1848,9 +1848,7 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1866,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
@@ -1881,9 +1879,7 @@
       <c r="D3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1899,7 +1895,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -1912,9 +1908,7 @@
       <c r="D4" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>235</v>
-      </c>
+      <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
         <v>236</v>
       </c>
@@ -1932,7 +1926,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>16</v>
       </c>
@@ -1945,9 +1939,7 @@
       <c r="D5" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>246</v>
-      </c>
+      <c r="E5" s="27"/>
       <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
@@ -1963,7 +1955,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>17</v>
       </c>
@@ -1976,9 +1968,7 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="28" t="s">
         <v>353</v>
       </c>
@@ -1996,7 +1986,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>18</v>
       </c>
@@ -2009,9 +1999,7 @@
       <c r="D7" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>247</v>
-      </c>
+      <c r="E7" s="27"/>
       <c r="F7" s="36" t="s">
         <v>354</v>
       </c>
@@ -2031,7 +2019,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>19</v>
       </c>
@@ -2044,9 +2032,7 @@
       <c r="D8" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>248</v>
-      </c>
+      <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
         <v>308</v>
       </c>
@@ -2064,7 +2050,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
@@ -2077,9 +2063,7 @@
       <c r="D9" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>249</v>
-      </c>
+      <c r="E9" s="27"/>
       <c r="F9" s="28" t="s">
         <v>307</v>
       </c>
@@ -2097,7 +2081,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
@@ -2110,9 +2094,7 @@
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="9" t="s">
         <v>21</v>
       </c>
@@ -2132,7 +2114,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
@@ -2145,9 +2127,7 @@
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="9" t="s">
         <v>25</v>
       </c>
@@ -2167,7 +2147,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>32</v>
       </c>
@@ -2180,9 +2160,7 @@
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
@@ -2202,7 +2180,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>35</v>
       </c>
@@ -2215,9 +2193,7 @@
       <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="9" t="s">
         <v>31</v>
       </c>
@@ -2237,7 +2213,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>38</v>
       </c>
@@ -2250,9 +2226,7 @@
       <c r="D14" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>228</v>
-      </c>
+      <c r="E14" s="27"/>
       <c r="F14" s="9" t="s">
         <v>34</v>
       </c>
@@ -2268,7 +2242,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>41</v>
       </c>
@@ -2281,9 +2255,7 @@
       <c r="D15" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>231</v>
-      </c>
+      <c r="E15" s="27"/>
       <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
@@ -2299,7 +2271,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>45</v>
       </c>
@@ -2312,9 +2284,7 @@
       <c r="D16" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>358</v>
-      </c>
+      <c r="E16" s="28"/>
       <c r="F16" s="9" t="s">
         <v>75</v>
       </c>
@@ -2332,7 +2302,7 @@
       <c r="N16" s="9"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>48</v>
       </c>
@@ -2345,9 +2315,7 @@
       <c r="D17" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>250</v>
-      </c>
+      <c r="E17" s="28"/>
       <c r="F17" s="9" t="s">
         <v>75</v>
       </c>
@@ -2365,7 +2333,7 @@
       <c r="N17" s="9"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>50</v>
       </c>
@@ -2378,9 +2346,7 @@
       <c r="D18" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>355</v>
-      </c>
+      <c r="E18" s="28"/>
       <c r="F18" s="28" t="s">
         <v>310</v>
       </c>
@@ -2396,7 +2362,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>52</v>
       </c>
@@ -2409,9 +2375,7 @@
       <c r="D19" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>337</v>
-      </c>
+      <c r="E19" s="28"/>
       <c r="F19" s="28" t="s">
         <v>75</v>
       </c>
@@ -2429,7 +2393,7 @@
       <c r="N19" s="9"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>54</v>
       </c>
@@ -2442,9 +2406,7 @@
       <c r="D20" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>251</v>
-      </c>
+      <c r="E20" s="28"/>
       <c r="F20" s="28" t="s">
         <v>75</v>
       </c>
@@ -2462,7 +2424,7 @@
       <c r="N20" s="9"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>56</v>
       </c>
@@ -2475,9 +2437,7 @@
       <c r="D21" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>356</v>
-      </c>
+      <c r="E21" s="28"/>
       <c r="F21" s="28" t="s">
         <v>310</v>
       </c>
@@ -2493,7 +2453,7 @@
       <c r="N21" s="9"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>59</v>
       </c>
@@ -2506,9 +2466,7 @@
       <c r="D22" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>252</v>
-      </c>
+      <c r="E22" s="28"/>
       <c r="F22" s="9" t="s">
         <v>75</v>
       </c>
@@ -2526,7 +2484,7 @@
       <c r="N22" s="9"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>62</v>
       </c>
@@ -2539,9 +2497,7 @@
       <c r="D23" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>253</v>
-      </c>
+      <c r="E23" s="28"/>
       <c r="F23" s="28" t="s">
         <v>75</v>
       </c>
@@ -2559,7 +2515,7 @@
       <c r="N23" s="9"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>64</v>
       </c>
@@ -2572,9 +2528,7 @@
       <c r="D24" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>357</v>
-      </c>
+      <c r="E24" s="28"/>
       <c r="F24" s="28" t="s">
         <v>310</v>
       </c>
@@ -2590,7 +2544,7 @@
       <c r="N24" s="9"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>66</v>
       </c>
@@ -2603,9 +2557,7 @@
       <c r="D25" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>254</v>
-      </c>
+      <c r="E25" s="28"/>
       <c r="F25" s="9" t="s">
         <v>75</v>
       </c>
@@ -2623,7 +2575,7 @@
       <c r="N25" s="9"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>68</v>
       </c>
@@ -2636,9 +2588,7 @@
       <c r="D26" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>255</v>
-      </c>
+      <c r="E26" s="28"/>
       <c r="F26" s="9" t="s">
         <v>75</v>
       </c>
@@ -2656,7 +2606,7 @@
       <c r="N26" s="9"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>70</v>
       </c>
@@ -2669,9 +2619,7 @@
       <c r="D27" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>359</v>
-      </c>
+      <c r="E27" s="28"/>
       <c r="F27" s="28" t="s">
         <v>311</v>
       </c>
@@ -2687,7 +2635,7 @@
       <c r="N27" s="9"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>74</v>
       </c>
@@ -2700,9 +2648,7 @@
       <c r="D28" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="E28" s="28" t="s">
-        <v>256</v>
-      </c>
+      <c r="E28" s="28"/>
       <c r="F28" s="9" t="s">
         <v>90</v>
       </c>
@@ -2722,7 +2668,7 @@
       <c r="N28" s="9"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>76</v>
       </c>
@@ -2735,9 +2681,7 @@
       <c r="D29" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="E29" s="28" t="s">
-        <v>257</v>
-      </c>
+      <c r="E29" s="28"/>
       <c r="F29" s="28" t="s">
         <v>312</v>
       </c>
@@ -2755,7 +2699,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="88" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>77</v>
       </c>
@@ -2768,9 +2712,7 @@
       <c r="D30" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="E30" s="28" t="s">
-        <v>258</v>
-      </c>
+      <c r="E30" s="28"/>
       <c r="F30" s="9" t="s">
         <v>210</v>
       </c>
@@ -2788,7 +2730,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>78</v>
       </c>
@@ -2801,9 +2743,7 @@
       <c r="D31" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="E31" s="28" t="s">
-        <v>259</v>
-      </c>
+      <c r="E31" s="28"/>
       <c r="F31" s="28" t="s">
         <v>313</v>
       </c>
@@ -2821,7 +2761,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>80</v>
       </c>
@@ -2834,9 +2774,7 @@
       <c r="D32" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>260</v>
-      </c>
+      <c r="E32" s="28"/>
       <c r="F32" s="28" t="s">
         <v>314</v>
       </c>
@@ -2854,7 +2792,7 @@
       <c r="N32" s="9"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>81</v>
       </c>
@@ -2867,9 +2805,7 @@
       <c r="D33" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="E33" s="28" t="s">
-        <v>261</v>
-      </c>
+      <c r="E33" s="28"/>
       <c r="F33" s="28" t="s">
         <v>315</v>
       </c>
@@ -2887,7 +2823,7 @@
       <c r="N33" s="9"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>82</v>
       </c>
@@ -2900,9 +2836,7 @@
       <c r="D34" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="E34" s="28" t="s">
-        <v>262</v>
-      </c>
+      <c r="E34" s="28"/>
       <c r="F34" s="28" t="s">
         <v>317</v>
       </c>
@@ -2920,7 +2854,7 @@
       <c r="N34" s="9"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>83</v>
       </c>
@@ -2933,9 +2867,7 @@
       <c r="D35" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="E35" s="28" t="s">
-        <v>263</v>
-      </c>
+      <c r="E35" s="28"/>
       <c r="F35" s="28" t="s">
         <v>316</v>
       </c>
@@ -2953,7 +2885,7 @@
       <c r="N35" s="9"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>84</v>
       </c>
@@ -2966,9 +2898,7 @@
       <c r="D36" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="E36" s="28" t="s">
-        <v>264</v>
-      </c>
+      <c r="E36" s="28"/>
       <c r="F36" s="9" t="s">
         <v>101</v>
       </c>
@@ -2986,7 +2916,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>85</v>
       </c>
@@ -2999,9 +2929,7 @@
       <c r="D37" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="E37" s="28" t="s">
-        <v>265</v>
-      </c>
+      <c r="E37" s="28"/>
       <c r="F37" s="28" t="s">
         <v>318</v>
       </c>
@@ -3019,7 +2947,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>86</v>
       </c>
@@ -3032,9 +2960,7 @@
       <c r="D38" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E38" s="28" t="s">
-        <v>266</v>
-      </c>
+      <c r="E38" s="28"/>
       <c r="F38" s="28" t="s">
         <v>319</v>
       </c>
@@ -3050,7 +2976,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
         <v>87</v>
       </c>
@@ -3063,9 +2989,7 @@
       <c r="D39" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="E39" s="28" t="s">
-        <v>361</v>
-      </c>
+      <c r="E39" s="28"/>
       <c r="F39" s="28" t="s">
         <v>320</v>
       </c>
@@ -3083,7 +3007,7 @@
       <c r="N39" s="9"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>88</v>
       </c>
@@ -3096,9 +3020,7 @@
       <c r="D40" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="E40" s="28" t="s">
-        <v>362</v>
-      </c>
+      <c r="E40" s="28"/>
       <c r="F40" s="28" t="s">
         <v>321</v>
       </c>
@@ -3114,7 +3036,7 @@
       <c r="N40" s="9"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
         <v>89</v>
       </c>
@@ -3127,9 +3049,7 @@
       <c r="D41" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="28" t="s">
-        <v>267</v>
-      </c>
+      <c r="E41" s="28"/>
       <c r="F41" s="9" t="s">
         <v>109</v>
       </c>
@@ -3147,7 +3067,7 @@
       <c r="N41" s="9"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
         <v>92</v>
       </c>
@@ -3160,9 +3080,7 @@
       <c r="D42" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="28" t="s">
-        <v>233</v>
-      </c>
+      <c r="E42" s="28"/>
       <c r="F42" s="28" t="s">
         <v>360</v>
       </c>
@@ -3178,7 +3096,7 @@
       <c r="N42" s="9"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
         <v>93</v>
       </c>
@@ -3191,9 +3109,7 @@
       <c r="D43" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="E43" s="28" t="s">
-        <v>268</v>
-      </c>
+      <c r="E43" s="28"/>
       <c r="F43" s="9" t="s">
         <v>133</v>
       </c>
@@ -3211,7 +3127,7 @@
       <c r="N43" s="9"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>94</v>
       </c>
@@ -3224,9 +3140,7 @@
       <c r="D44" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="E44" s="28" t="s">
-        <v>342</v>
-      </c>
+      <c r="E44" s="28"/>
       <c r="F44" s="9" t="s">
         <v>135</v>
       </c>
@@ -3248,7 +3162,7 @@
       <c r="N44" s="9"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
         <v>95</v>
       </c>
@@ -3261,9 +3175,7 @@
       <c r="D45" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="E45" s="28" t="s">
-        <v>269</v>
-      </c>
+      <c r="E45" s="28"/>
       <c r="F45" s="9" t="s">
         <v>135</v>
       </c>
@@ -3285,7 +3197,7 @@
       <c r="N45" s="9"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>96</v>
       </c>
@@ -3298,9 +3210,7 @@
       <c r="D46" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="E46" s="28" t="s">
-        <v>341</v>
-      </c>
+      <c r="E46" s="28"/>
       <c r="F46" s="9" t="s">
         <v>142</v>
       </c>
@@ -3322,7 +3232,7 @@
       <c r="N46" s="9"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>97</v>
       </c>
@@ -3335,9 +3245,7 @@
       <c r="D47" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="E47" s="28" t="s">
-        <v>270</v>
-      </c>
+      <c r="E47" s="28"/>
       <c r="F47" s="28" t="s">
         <v>142</v>
       </c>
@@ -3359,7 +3267,7 @@
       <c r="N47" s="9"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
         <v>98</v>
       </c>
@@ -3372,9 +3280,7 @@
       <c r="D48" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="E48" s="28" t="s">
-        <v>343</v>
-      </c>
+      <c r="E48" s="28"/>
       <c r="F48" s="28" t="s">
         <v>322</v>
       </c>
@@ -3396,7 +3302,7 @@
       <c r="N48" s="9"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>99</v>
       </c>
@@ -3409,9 +3315,7 @@
       <c r="D49" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="E49" s="28" t="s">
-        <v>271</v>
-      </c>
+      <c r="E49" s="28"/>
       <c r="F49" s="28" t="s">
         <v>322</v>
       </c>
@@ -3433,7 +3337,7 @@
       <c r="N49" s="9"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>103</v>
       </c>
@@ -3446,9 +3350,7 @@
       <c r="D50" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="E50" s="28" t="s">
-        <v>344</v>
-      </c>
+      <c r="E50" s="28"/>
       <c r="F50" s="9" t="s">
         <v>147</v>
       </c>
@@ -3470,7 +3372,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>104</v>
       </c>
@@ -3483,9 +3385,7 @@
       <c r="D51" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="E51" s="28" t="s">
-        <v>272</v>
-      </c>
+      <c r="E51" s="28"/>
       <c r="F51" s="9" t="s">
         <v>147</v>
       </c>
@@ -3507,7 +3407,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
         <v>105</v>
       </c>
@@ -3520,9 +3420,7 @@
       <c r="D52" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="E52" s="28" t="s">
-        <v>345</v>
-      </c>
+      <c r="E52" s="28"/>
       <c r="F52" s="28" t="s">
         <v>324</v>
       </c>
@@ -3544,7 +3442,7 @@
       <c r="N52" s="9"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
         <v>106</v>
       </c>
@@ -3557,9 +3455,7 @@
       <c r="D53" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="E53" s="28" t="s">
-        <v>273</v>
-      </c>
+      <c r="E53" s="28"/>
       <c r="F53" s="28" t="s">
         <v>324</v>
       </c>
@@ -3581,7 +3477,7 @@
       <c r="N53" s="9"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
         <v>107</v>
       </c>
@@ -3594,9 +3490,7 @@
       <c r="D54" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="E54" s="28" t="s">
-        <v>346</v>
-      </c>
+      <c r="E54" s="28"/>
       <c r="F54" s="28" t="s">
         <v>325</v>
       </c>
@@ -3618,7 +3512,7 @@
       <c r="N54" s="9"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
         <v>110</v>
       </c>
@@ -3631,9 +3525,7 @@
       <c r="D55" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="E55" s="28" t="s">
-        <v>274</v>
-      </c>
+      <c r="E55" s="28"/>
       <c r="F55" s="28" t="s">
         <v>325</v>
       </c>
@@ -3655,7 +3547,7 @@
       <c r="N55" s="9"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>111</v>
       </c>
@@ -3668,9 +3560,7 @@
       <c r="D56" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="E56" s="28" t="s">
-        <v>347</v>
-      </c>
+      <c r="E56" s="28"/>
       <c r="F56" s="28" t="s">
         <v>323</v>
       </c>
@@ -3692,7 +3582,7 @@
       <c r="N56" s="9"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
         <v>114</v>
       </c>
@@ -3705,9 +3595,7 @@
       <c r="D57" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="E57" s="28" t="s">
-        <v>275</v>
-      </c>
+      <c r="E57" s="28"/>
       <c r="F57" s="28" t="s">
         <v>323</v>
       </c>
@@ -3729,7 +3617,7 @@
       <c r="N57" s="9"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>116</v>
       </c>
@@ -3742,9 +3630,7 @@
       <c r="D58" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="28" t="s">
-        <v>234</v>
-      </c>
+      <c r="E58" s="28"/>
       <c r="F58" s="9" t="s">
         <v>156</v>
       </c>
@@ -3760,7 +3646,7 @@
       <c r="N58" s="9"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>119</v>
       </c>
@@ -3773,9 +3659,7 @@
       <c r="D59" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="E59" s="28" t="s">
-        <v>276</v>
-      </c>
+      <c r="E59" s="28"/>
       <c r="F59" s="9" t="s">
         <v>163</v>
       </c>
@@ -3793,7 +3677,7 @@
       <c r="N59" s="9"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
         <v>122</v>
       </c>
@@ -3806,9 +3690,7 @@
       <c r="D60" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="E60" s="28" t="s">
-        <v>277</v>
-      </c>
+      <c r="E60" s="28"/>
       <c r="F60" s="9" t="s">
         <v>166</v>
       </c>
@@ -3824,7 +3706,7 @@
       <c r="N60" s="9"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
         <v>124</v>
       </c>
@@ -3837,9 +3719,7 @@
       <c r="D61" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="E61" s="28" t="s">
-        <v>278</v>
-      </c>
+      <c r="E61" s="28"/>
       <c r="F61" s="9" t="s">
         <v>169</v>
       </c>
@@ -3855,7 +3735,7 @@
       <c r="N61" s="9"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
         <v>126</v>
       </c>
@@ -3868,9 +3748,7 @@
       <c r="D62" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="E62" s="28" t="s">
-        <v>348</v>
-      </c>
+      <c r="E62" s="28"/>
       <c r="F62" s="9" t="s">
         <v>171</v>
       </c>
@@ -3892,7 +3770,7 @@
       <c r="N62" s="9"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
         <v>128</v>
       </c>
@@ -3905,9 +3783,7 @@
       <c r="D63" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="E63" s="28" t="s">
-        <v>279</v>
-      </c>
+      <c r="E63" s="28"/>
       <c r="F63" s="9" t="s">
         <v>171</v>
       </c>
@@ -3929,7 +3805,7 @@
       <c r="N63" s="9"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
         <v>130</v>
       </c>
@@ -3942,9 +3818,7 @@
       <c r="D64" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="E64" s="28" t="s">
-        <v>349</v>
-      </c>
+      <c r="E64" s="28"/>
       <c r="F64" s="9" t="s">
         <v>174</v>
       </c>
@@ -3966,7 +3840,7 @@
       <c r="N64" s="9"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
         <v>134</v>
       </c>
@@ -3979,9 +3853,7 @@
       <c r="D65" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="E65" s="28" t="s">
-        <v>280</v>
-      </c>
+      <c r="E65" s="28"/>
       <c r="F65" s="9" t="s">
         <v>174</v>
       </c>
@@ -4003,7 +3875,7 @@
       <c r="N65" s="9"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
         <v>138</v>
       </c>
@@ -4016,9 +3888,7 @@
       <c r="D66" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="E66" s="28" t="s">
-        <v>350</v>
-      </c>
+      <c r="E66" s="28"/>
       <c r="F66" s="28" t="s">
         <v>326</v>
       </c>
@@ -4040,7 +3910,7 @@
       <c r="N66" s="9"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
         <v>141</v>
       </c>
@@ -4053,9 +3923,7 @@
       <c r="D67" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="E67" s="28" t="s">
-        <v>281</v>
-      </c>
+      <c r="E67" s="28"/>
       <c r="F67" s="28" t="s">
         <v>327</v>
       </c>
@@ -4077,7 +3945,7 @@
       <c r="N67" s="9"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>143</v>
       </c>
@@ -4090,9 +3958,7 @@
       <c r="D68" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="E68" s="28" t="s">
-        <v>351</v>
-      </c>
+      <c r="E68" s="28"/>
       <c r="F68" s="9" t="s">
         <v>179</v>
       </c>
@@ -4114,7 +3980,7 @@
       <c r="N68" s="9"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
         <v>144</v>
       </c>
@@ -4127,9 +3993,7 @@
       <c r="D69" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="E69" s="28" t="s">
-        <v>282</v>
-      </c>
+      <c r="E69" s="28"/>
       <c r="F69" s="9" t="s">
         <v>179</v>
       </c>
@@ -4151,7 +4015,7 @@
       <c r="N69" s="9"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
         <v>145</v>
       </c>
@@ -4164,9 +4028,7 @@
       <c r="D70" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="E70" s="28" t="s">
-        <v>283</v>
-      </c>
+      <c r="E70" s="28"/>
       <c r="F70" s="9" t="s">
         <v>182</v>
       </c>
@@ -4182,7 +4044,7 @@
       <c r="N70" s="9"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
         <v>146</v>
       </c>
@@ -4195,9 +4057,7 @@
       <c r="D71" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="E71" s="28" t="s">
-        <v>284</v>
-      </c>
+      <c r="E71" s="28"/>
       <c r="F71" s="9" t="s">
         <v>183</v>
       </c>
@@ -4213,7 +4073,7 @@
       <c r="N71" s="9"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
         <v>148</v>
       </c>
@@ -4226,9 +4086,7 @@
       <c r="D72" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="E72" s="28" t="s">
-        <v>285</v>
-      </c>
+      <c r="E72" s="28"/>
       <c r="F72" s="28" t="s">
         <v>242</v>
       </c>
@@ -4246,7 +4104,7 @@
       <c r="N72" s="9"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
         <v>149</v>
       </c>
@@ -4259,9 +4117,7 @@
       <c r="D73" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="E73" s="28" t="s">
-        <v>286</v>
-      </c>
+      <c r="E73" s="28"/>
       <c r="F73" s="28" t="s">
         <v>241</v>
       </c>
@@ -4279,7 +4135,7 @@
       <c r="N73" s="9"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
         <v>150</v>
       </c>
@@ -4292,9 +4148,7 @@
       <c r="D74" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="E74" s="28" t="s">
-        <v>287</v>
-      </c>
+      <c r="E74" s="28"/>
       <c r="F74" s="9" t="s">
         <v>185</v>
       </c>
@@ -4310,7 +4164,7 @@
       <c r="N74" s="9"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="34" t="s">
         <v>151</v>
       </c>
@@ -4323,9 +4177,7 @@
       <c r="D75" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="E75" s="28" t="s">
-        <v>288</v>
-      </c>
+      <c r="E75" s="28"/>
       <c r="F75" s="9" t="s">
         <v>186</v>
       </c>
@@ -4347,7 +4199,7 @@
       <c r="N75" s="9"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
         <v>152</v>
       </c>
@@ -4360,9 +4212,7 @@
       <c r="D76" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="E76" s="28" t="s">
-        <v>289</v>
-      </c>
+      <c r="E76" s="28"/>
       <c r="F76" s="28" t="s">
         <v>328</v>
       </c>
@@ -4384,7 +4234,7 @@
       <c r="N76" s="9"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="34" t="s">
         <v>153</v>
       </c>
@@ -4397,9 +4247,7 @@
       <c r="D77" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="E77" s="28" t="s">
-        <v>290</v>
-      </c>
+      <c r="E77" s="28"/>
       <c r="F77" s="28" t="s">
         <v>329</v>
       </c>
@@ -4421,7 +4269,7 @@
       <c r="N77" s="9"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
         <v>154</v>
       </c>
@@ -4434,9 +4282,7 @@
       <c r="D78" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="E78" s="28" t="s">
-        <v>291</v>
-      </c>
+      <c r="E78" s="28"/>
       <c r="F78" s="28" t="s">
         <v>330</v>
       </c>
@@ -4458,7 +4304,7 @@
       <c r="N78" s="9"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
         <v>155</v>
       </c>
@@ -4471,9 +4317,7 @@
       <c r="D79" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="E79" s="28" t="s">
-        <v>292</v>
-      </c>
+      <c r="E79" s="28"/>
       <c r="F79" s="28" t="s">
         <v>331</v>
       </c>
@@ -4495,7 +4339,7 @@
       <c r="N79" s="9"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
         <v>157</v>
       </c>
@@ -4508,9 +4352,7 @@
       <c r="D80" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="E80" s="28" t="s">
-        <v>293</v>
-      </c>
+      <c r="E80" s="28"/>
       <c r="F80" s="28" t="s">
         <v>330</v>
       </c>
@@ -4532,7 +4374,7 @@
       <c r="N80" s="9"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="34" t="s">
         <v>158</v>
       </c>
@@ -4545,9 +4387,7 @@
       <c r="D81" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="E81" s="28" t="s">
-        <v>294</v>
-      </c>
+      <c r="E81" s="28"/>
       <c r="F81" s="28" t="s">
         <v>331</v>
       </c>
@@ -4569,7 +4409,7 @@
       <c r="N81" s="9"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
         <v>160</v>
       </c>
@@ -4582,9 +4422,7 @@
       <c r="D82" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="E82" s="28" t="s">
-        <v>295</v>
-      </c>
+      <c r="E82" s="28"/>
       <c r="F82" s="9" t="s">
         <v>189</v>
       </c>
@@ -4606,7 +4444,7 @@
       <c r="N82" s="9"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
         <v>162</v>
       </c>
@@ -4619,9 +4457,7 @@
       <c r="D83" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="E83" s="28" t="s">
-        <v>296</v>
-      </c>
+      <c r="E83" s="28"/>
       <c r="F83" s="9" t="s">
         <v>191</v>
       </c>
@@ -4643,7 +4479,7 @@
       <c r="N83" s="9"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
         <v>165</v>
       </c>
@@ -4656,9 +4492,7 @@
       <c r="D84" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="E84" s="28" t="s">
-        <v>297</v>
-      </c>
+      <c r="E84" s="28"/>
       <c r="F84" s="9" t="s">
         <v>192</v>
       </c>
@@ -4678,7 +4512,7 @@
       <c r="N84" s="9"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="34" t="s">
         <v>168</v>
       </c>
@@ -4691,9 +4525,7 @@
       <c r="D85" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="E85" s="28" t="s">
-        <v>352</v>
-      </c>
+      <c r="E85" s="28"/>
       <c r="F85" s="9" t="s">
         <v>193</v>
       </c>
@@ -4715,7 +4547,7 @@
       <c r="N85" s="9"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
         <v>170</v>
       </c>
@@ -4728,9 +4560,7 @@
       <c r="D86" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E86" s="28" t="s">
-        <v>298</v>
-      </c>
+      <c r="E86" s="28"/>
       <c r="F86" s="9" t="s">
         <v>193</v>
       </c>
@@ -4752,7 +4582,7 @@
       <c r="N86" s="9"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="34" t="s">
         <v>172</v>
       </c>
@@ -4765,9 +4595,7 @@
       <c r="D87" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="E87" s="28" t="s">
-        <v>299</v>
-      </c>
+      <c r="E87" s="28"/>
       <c r="F87" s="9" t="s">
         <v>194</v>
       </c>
@@ -4783,7 +4611,7 @@
       <c r="N87" s="9"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
         <v>173</v>
       </c>
@@ -4796,9 +4624,7 @@
       <c r="D88" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="E88" s="28" t="s">
-        <v>300</v>
-      </c>
+      <c r="E88" s="28"/>
       <c r="F88" s="28" t="s">
         <v>332</v>
       </c>
@@ -4816,7 +4642,7 @@
       <c r="N88" s="9"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="34" t="s">
         <v>175</v>
       </c>
@@ -4829,9 +4655,7 @@
       <c r="D89" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="E89" s="28" t="s">
-        <v>301</v>
-      </c>
+      <c r="E89" s="28"/>
       <c r="F89" s="28" t="s">
         <v>333</v>
       </c>
@@ -4849,7 +4673,7 @@
       <c r="N89" s="9"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
         <v>176</v>
       </c>
@@ -4862,9 +4686,7 @@
       <c r="D90" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="E90" s="28" t="s">
-        <v>302</v>
-      </c>
+      <c r="E90" s="28"/>
       <c r="F90" s="28" t="s">
         <v>334</v>
       </c>
@@ -4882,7 +4704,7 @@
       <c r="N90" s="9"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="34" t="s">
         <v>177</v>
       </c>
@@ -4895,9 +4717,7 @@
       <c r="D91" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E91" s="28" t="s">
-        <v>303</v>
-      </c>
+      <c r="E91" s="28"/>
       <c r="F91" s="28" t="s">
         <v>335</v>
       </c>
@@ -4915,7 +4735,7 @@
       <c r="N91" s="9"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
         <v>178</v>
       </c>
@@ -4928,9 +4748,7 @@
       <c r="D92" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="E92" s="28" t="s">
-        <v>304</v>
-      </c>
+      <c r="E92" s="28"/>
       <c r="F92" s="9" t="s">
         <v>195</v>
       </c>
@@ -4946,7 +4764,7 @@
       <c r="N92" s="9"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="34" t="s">
         <v>180</v>
       </c>
@@ -4959,9 +4777,7 @@
       <c r="D93" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="E93" s="28" t="s">
-        <v>305</v>
-      </c>
+      <c r="E93" s="28"/>
       <c r="F93" s="9" t="s">
         <v>196</v>
       </c>
@@ -4977,7 +4793,7 @@
       <c r="N93" s="9"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
         <v>181</v>
       </c>
@@ -4988,9 +4804,6 @@
         <v>219</v>
       </c>
       <c r="D94" t="s">
-        <v>306</v>
-      </c>
-      <c r="E94" t="s">
         <v>306</v>
       </c>
       <c r="F94" s="37" t="s">
@@ -5018,14 +4831,14 @@
       <selection activeCell="E14" sqref="E11:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="30.1796875" customWidth="1"/>
-    <col min="8" max="8" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5067,7 +4880,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -5097,7 +4910,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -5123,7 +4936,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>116</v>
       </c>
@@ -5155,7 +4968,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
@@ -5187,7 +5000,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
@@ -5219,7 +5032,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -5251,7 +5064,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
@@ -5283,7 +5096,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>128</v>
       </c>
@@ -5328,18 +5141,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.90625" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="7" max="7" width="47.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5381,7 +5194,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5407,7 +5220,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -5433,7 +5246,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -5459,7 +5272,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -5485,7 +5298,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -5511,7 +5324,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -5539,7 +5352,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -5565,7 +5378,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -5591,7 +5404,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -5617,7 +5430,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -5643,7 +5456,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -5685,17 +5498,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="33.81640625" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" customWidth="1"/>
-    <col min="12" max="12" width="28.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5737,7 +5550,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
@@ -5763,7 +5576,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>158</v>
       </c>
@@ -5795,7 +5608,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
@@ -5841,15 +5654,15 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" customWidth="1"/>
-    <col min="8" max="8" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5891,7 +5704,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -5917,7 +5730,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -5945,7 +5758,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -5986,15 +5799,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="78.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="78.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -6036,7 +5849,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -6062,7 +5875,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>

--- a/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
+++ b/dataland-framework-toolbox/inputs/vsme/vsme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92928\Documents\Projects\Dataland\Dataland\dataland-framework-toolbox\inputs\vsme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\vsme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C9B9D-5E11-45ED-B233-9DB8CFCEBC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD7DB3-056B-4F48-94D6-566149040822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
+    <workbookView xWindow="-28020" yWindow="975" windowWidth="21600" windowHeight="11175" xr2:uid="{C4E498E0-8E09-4328-BD54-6E3CD29DBCBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Pollution" sheetId="3" r:id="rId5"/>
     <sheet name="Subsidiaries" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="366">
   <si>
     <t>1</t>
   </si>
@@ -1158,6 +1158,9 @@
   </si>
   <si>
     <t>Weight (preferred)|Volume</t>
+  </si>
+  <si>
+    <t>Alias Export</t>
   </si>
 </sst>
 </file>
@@ -1468,9 +1471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1508,7 +1511,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1614,7 +1617,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1756,7 +1759,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1764,30 +1767,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE53926-978F-4910-9169-F720F1E0A6DD}">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1"/>
-    <col min="7" max="7" width="58.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="58.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -1800,36 +1803,39 @@
       <c r="D1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="N1" s="21"/>
-    </row>
-    <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
@@ -1842,24 +1848,25 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="2"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
@@ -1872,22 +1879,23 @@
       <c r="D3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="2"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -1900,24 +1908,25 @@
       <c r="D4" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="H4" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32" t="s">
-        <v>239</v>
-      </c>
+      <c r="I4" s="32"/>
       <c r="J4" s="32" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K4" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>16</v>
       </c>
@@ -1930,22 +1939,23 @@
       <c r="D5" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>17</v>
       </c>
@@ -1958,24 +1968,25 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="K6" s="2"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>18</v>
       </c>
@@ -1988,26 +1999,27 @@
       <c r="D7" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L7" s="12"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>19</v>
       </c>
@@ -2020,24 +2032,25 @@
       <c r="D8" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
@@ -2050,24 +2063,25 @@
       <c r="D9" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
@@ -2080,26 +2094,27 @@
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="27" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L10" s="12"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
@@ -2112,26 +2127,27 @@
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>32</v>
       </c>
@@ -2144,26 +2160,27 @@
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L12" s="12"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>35</v>
       </c>
@@ -2176,26 +2193,27 @@
       <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L13" s="12"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>38</v>
       </c>
@@ -2208,22 +2226,23 @@
       <c r="D14" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="K14" s="3"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>41</v>
       </c>
@@ -2236,22 +2255,23 @@
       <c r="D15" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="J15" s="3"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>45</v>
       </c>
@@ -2264,24 +2284,25 @@
       <c r="D16" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="28" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N16" s="9"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>48</v>
       </c>
@@ -2294,24 +2315,25 @@
       <c r="D17" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N17" s="9"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>50</v>
       </c>
@@ -2324,22 +2346,23 @@
       <c r="D18" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N18" s="9"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>52</v>
       </c>
@@ -2352,24 +2375,25 @@
       <c r="D19" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N19" s="9"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>54</v>
       </c>
@@ -2382,24 +2406,25 @@
       <c r="D20" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N20" s="9"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>56</v>
       </c>
@@ -2412,22 +2437,23 @@
       <c r="D21" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N21" s="9"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>59</v>
       </c>
@@ -2440,24 +2466,25 @@
       <c r="D22" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N22" s="9"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>62</v>
       </c>
@@ -2470,24 +2497,25 @@
       <c r="D23" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N23" s="9"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>64</v>
       </c>
@@ -2500,22 +2528,23 @@
       <c r="D24" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N24" s="9"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>66</v>
       </c>
@@ -2528,24 +2557,25 @@
       <c r="D25" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N25" s="9"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>68</v>
       </c>
@@ -2558,24 +2588,25 @@
       <c r="D26" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N26" s="9"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>70</v>
       </c>
@@ -2588,22 +2619,23 @@
       <c r="D27" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="N27" s="9"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>74</v>
       </c>
@@ -2616,26 +2648,27 @@
       <c r="D28" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="28"/>
+      <c r="F28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="29" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="K28" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N28" s="9"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>76</v>
       </c>
@@ -2648,24 +2681,25 @@
       <c r="D29" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="29" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" ht="87.6" x14ac:dyDescent="0.3">
+      <c r="N29" s="9"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>77</v>
       </c>
@@ -2678,24 +2712,25 @@
       <c r="D30" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="29" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N30" s="9"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>78</v>
       </c>
@@ -2708,24 +2743,25 @@
       <c r="D31" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="29" t="s">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N31" s="9"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>80</v>
       </c>
@@ -2738,24 +2774,25 @@
       <c r="D32" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="29" t="s">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N32" s="9"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>81</v>
       </c>
@@ -2768,24 +2805,25 @@
       <c r="D33" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="29" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N33" s="9"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>82</v>
       </c>
@@ -2798,24 +2836,25 @@
       <c r="D34" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="29" t="s">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N34" s="9"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>83</v>
       </c>
@@ -2828,24 +2867,25 @@
       <c r="D35" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="29" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="N35" s="9"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" ht="285" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>84</v>
       </c>
@@ -2858,24 +2898,25 @@
       <c r="D36" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="28"/>
+      <c r="F36" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="28" t="s">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N36" s="9"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>85</v>
       </c>
@@ -2888,24 +2929,25 @@
       <c r="D37" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="28" t="s">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N37" s="9"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>86</v>
       </c>
@@ -2918,22 +2960,23 @@
       <c r="D38" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N38" s="9"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
         <v>87</v>
       </c>
@@ -2946,24 +2989,25 @@
       <c r="D39" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="28"/>
+      <c r="F39" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="28" t="s">
+      <c r="G39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N39" s="9"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>88</v>
       </c>
@@ -2976,22 +3020,23 @@
       <c r="D40" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="28"/>
+      <c r="F40" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="N40" s="9"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
         <v>89</v>
       </c>
@@ -3004,24 +3049,25 @@
       <c r="D41" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="9"/>
+      <c r="H41" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="I41" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="2"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N41" s="9"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
         <v>92</v>
       </c>
@@ -3034,22 +3080,23 @@
       <c r="D42" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="28"/>
+      <c r="F42" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="9"/>
+      <c r="H42" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="N42" s="9"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
         <v>93</v>
       </c>
@@ -3062,24 +3109,25 @@
       <c r="D43" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="I43" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L43" s="9"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>94</v>
       </c>
@@ -3092,28 +3140,29 @@
       <c r="D44" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="28"/>
+      <c r="F44" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="28" t="s">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="9"/>
+      <c r="L44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L44" s="30" t="s">
+      <c r="M44" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N44" s="9"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
         <v>95</v>
       </c>
@@ -3126,28 +3175,29 @@
       <c r="D45" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="28"/>
+      <c r="F45" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="28" t="s">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="9"/>
+      <c r="L45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L45" s="30" t="s">
+      <c r="M45" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M45" s="9"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N45" s="9"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>96</v>
       </c>
@@ -3160,28 +3210,29 @@
       <c r="D46" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="28"/>
+      <c r="F46" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="28" t="s">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L46" s="30" t="s">
+      <c r="M46" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N46" s="9"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>97</v>
       </c>
@@ -3194,28 +3245,29 @@
       <c r="D47" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="28"/>
+      <c r="F47" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="28" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="9"/>
+      <c r="L47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L47" s="30" t="s">
+      <c r="M47" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N47" s="9"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
         <v>98</v>
       </c>
@@ -3228,28 +3280,29 @@
       <c r="D48" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="28"/>
+      <c r="F48" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="28" t="s">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="9"/>
+      <c r="L48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L48" s="30" t="s">
+      <c r="M48" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M48" s="9"/>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N48" s="9"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>99</v>
       </c>
@@ -3262,28 +3315,29 @@
       <c r="D49" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="28"/>
+      <c r="F49" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="28" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="9"/>
+      <c r="L49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L49" s="30" t="s">
+      <c r="M49" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M49" s="9"/>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N49" s="9"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>103</v>
       </c>
@@ -3296,28 +3350,29 @@
       <c r="D50" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="28"/>
+      <c r="F50" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="28" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="1" t="s">
+      <c r="K50" s="9"/>
+      <c r="L50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L50" s="30" t="s">
+      <c r="M50" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N50" s="9"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>104</v>
       </c>
@@ -3330,28 +3385,29 @@
       <c r="D51" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="28"/>
+      <c r="F51" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="28" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="1" t="s">
+      <c r="K51" s="9"/>
+      <c r="L51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L51" s="30" t="s">
+      <c r="M51" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M51" s="9"/>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N51" s="9"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
         <v>105</v>
       </c>
@@ -3364,28 +3420,29 @@
       <c r="D52" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="28"/>
+      <c r="F52" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="28" t="s">
+      <c r="G52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="1" t="s">
+      <c r="K52" s="9"/>
+      <c r="L52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L52" s="30" t="s">
+      <c r="M52" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M52" s="9"/>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N52" s="9"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
         <v>106</v>
       </c>
@@ -3398,28 +3455,29 @@
       <c r="D53" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="28"/>
+      <c r="F53" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="28" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="1" t="s">
+      <c r="K53" s="9"/>
+      <c r="L53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L53" s="30" t="s">
+      <c r="M53" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M53" s="9"/>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N53" s="9"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
         <v>107</v>
       </c>
@@ -3432,28 +3490,29 @@
       <c r="D54" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="28"/>
+      <c r="F54" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="28" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="9"/>
+      <c r="L54" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L54" s="30" t="s">
+      <c r="M54" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M54" s="9"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N54" s="9"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
         <v>110</v>
       </c>
@@ -3466,28 +3525,29 @@
       <c r="D55" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="28"/>
+      <c r="F55" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="28" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="9"/>
+      <c r="L55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L55" s="30" t="s">
+      <c r="M55" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M55" s="9"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N55" s="9"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>111</v>
       </c>
@@ -3500,28 +3560,29 @@
       <c r="D56" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="28"/>
+      <c r="F56" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="28" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="1" t="s">
+      <c r="K56" s="9"/>
+      <c r="L56" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L56" s="30" t="s">
+      <c r="M56" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M56" s="9"/>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N56" s="9"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
         <v>114</v>
       </c>
@@ -3534,28 +3595,29 @@
       <c r="D57" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="28"/>
+      <c r="F57" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="28" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="1" t="s">
+      <c r="K57" s="9"/>
+      <c r="L57" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L57" s="30" t="s">
+      <c r="M57" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M57" s="9"/>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N57" s="9"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>116</v>
       </c>
@@ -3568,22 +3630,23 @@
       <c r="D58" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="28"/>
+      <c r="F58" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-      <c r="N58" s="2"/>
-    </row>
-    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N58" s="9"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>119</v>
       </c>
@@ -3596,24 +3659,25 @@
       <c r="D59" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="28"/>
+      <c r="F59" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9" t="s">
+      <c r="G59" s="9"/>
+      <c r="H59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="2"/>
-    </row>
-    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N59" s="9"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
         <v>122</v>
       </c>
@@ -3626,22 +3690,23 @@
       <c r="D60" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="28"/>
+      <c r="F60" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="9"/>
+      <c r="H60" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
-      <c r="N60" s="2"/>
-    </row>
-    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="N60" s="9"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
         <v>124</v>
       </c>
@@ -3654,22 +3719,23 @@
       <c r="D61" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="28"/>
+      <c r="F61" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="2"/>
-    </row>
-    <row r="62" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L61" s="9"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
         <v>126</v>
       </c>
@@ -3682,28 +3748,29 @@
       <c r="D62" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="28"/>
+      <c r="F62" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="28" t="s">
+      <c r="I62" s="9"/>
+      <c r="J62" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="1" t="s">
+      <c r="K62" s="9"/>
+      <c r="L62" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L62" s="30" t="s">
+      <c r="M62" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M62" s="9"/>
-      <c r="N62" s="2"/>
-    </row>
-    <row r="63" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N62" s="9"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
         <v>128</v>
       </c>
@@ -3716,28 +3783,29 @@
       <c r="D63" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="28"/>
+      <c r="F63" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="28" t="s">
+      <c r="I63" s="9"/>
+      <c r="J63" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="1" t="s">
+      <c r="K63" s="9"/>
+      <c r="L63" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L63" s="30" t="s">
+      <c r="M63" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M63" s="9"/>
-      <c r="N63" s="2"/>
-    </row>
-    <row r="64" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N63" s="9"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
         <v>130</v>
       </c>
@@ -3750,28 +3818,29 @@
       <c r="D64" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="28"/>
+      <c r="F64" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="9"/>
+      <c r="H64" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="28" t="s">
+      <c r="I64" s="9"/>
+      <c r="J64" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="9"/>
+      <c r="L64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L64" s="30" t="s">
+      <c r="M64" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M64" s="9"/>
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N64" s="9"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
         <v>134</v>
       </c>
@@ -3784,28 +3853,29 @@
       <c r="D65" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="28"/>
+      <c r="F65" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="9"/>
+      <c r="H65" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="28" t="s">
+      <c r="I65" s="9"/>
+      <c r="J65" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="9"/>
+      <c r="L65" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L65" s="30" t="s">
+      <c r="M65" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M65" s="9"/>
-      <c r="N65" s="2"/>
-    </row>
-    <row r="66" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N65" s="9"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
         <v>138</v>
       </c>
@@ -3818,28 +3888,29 @@
       <c r="D66" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="28"/>
+      <c r="F66" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="28" t="s">
+      <c r="I66" s="9"/>
+      <c r="J66" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="9"/>
+      <c r="L66" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L66" s="30" t="s">
+      <c r="M66" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M66" s="9"/>
-      <c r="N66" s="2"/>
-    </row>
-    <row r="67" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N66" s="9"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
         <v>141</v>
       </c>
@@ -3852,28 +3923,29 @@
       <c r="D67" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="28"/>
+      <c r="F67" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="28" t="s">
+      <c r="I67" s="9"/>
+      <c r="J67" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="1" t="s">
+      <c r="K67" s="9"/>
+      <c r="L67" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L67" s="30" t="s">
+      <c r="M67" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M67" s="9"/>
-      <c r="N67" s="2"/>
-    </row>
-    <row r="68" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N67" s="9"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>143</v>
       </c>
@@ -3886,28 +3958,29 @@
       <c r="D68" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="28"/>
+      <c r="F68" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="28" t="s">
+      <c r="G68" s="9"/>
+      <c r="H68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="1" t="s">
+      <c r="K68" s="9"/>
+      <c r="L68" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L68" s="30" t="s">
+      <c r="M68" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M68" s="9"/>
-      <c r="N68" s="2"/>
-    </row>
-    <row r="69" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N68" s="9"/>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
         <v>144</v>
       </c>
@@ -3920,28 +3993,29 @@
       <c r="D69" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="28"/>
+      <c r="F69" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="28" t="s">
+      <c r="G69" s="9"/>
+      <c r="H69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="1" t="s">
+      <c r="K69" s="9"/>
+      <c r="L69" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L69" s="30" t="s">
+      <c r="M69" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M69" s="9"/>
-      <c r="N69" s="2"/>
-    </row>
-    <row r="70" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N69" s="9"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
         <v>145</v>
       </c>
@@ -3954,22 +4028,23 @@
       <c r="D70" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="28"/>
+      <c r="F70" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
-      <c r="N70" s="2"/>
-    </row>
-    <row r="71" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N70" s="9"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
         <v>146</v>
       </c>
@@ -3982,22 +4057,23 @@
       <c r="D71" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="28"/>
+      <c r="F71" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
-      <c r="N71" s="2"/>
-    </row>
-    <row r="72" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N71" s="9"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
         <v>148</v>
       </c>
@@ -4010,24 +4086,25 @@
       <c r="D72" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="E72" s="28" t="s">
+      <c r="E72" s="28"/>
+      <c r="F72" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9" t="s">
+      <c r="G72" s="9"/>
+      <c r="H72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
-      <c r="N72" s="2"/>
-    </row>
-    <row r="73" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N72" s="9"/>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
         <v>149</v>
       </c>
@@ -4040,24 +4117,25 @@
       <c r="D73" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="E73" s="28" t="s">
+      <c r="E73" s="28"/>
+      <c r="F73" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
-      <c r="N73" s="2"/>
-    </row>
-    <row r="74" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N73" s="9"/>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
         <v>150</v>
       </c>
@@ -4070,22 +4148,23 @@
       <c r="D74" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="28"/>
+      <c r="F74" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="8"/>
       <c r="M74" s="9"/>
-      <c r="N74" s="2"/>
-    </row>
-    <row r="75" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N74" s="9"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="34" t="s">
         <v>151</v>
       </c>
@@ -4098,28 +4177,29 @@
       <c r="D75" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="28"/>
+      <c r="F75" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="I75" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="8">
+      <c r="K75" s="9"/>
+      <c r="L75" s="8">
         <v>43</v>
       </c>
-      <c r="L75" s="9" t="s">
+      <c r="M75" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M75" s="9"/>
-      <c r="N75" s="2"/>
-    </row>
-    <row r="76" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N75" s="9"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
         <v>152</v>
       </c>
@@ -4132,28 +4212,29 @@
       <c r="D76" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="E76" s="28" t="s">
+      <c r="E76" s="28"/>
+      <c r="F76" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9" t="s">
+      <c r="G76" s="9"/>
+      <c r="H76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="8">
+      <c r="K76" s="9"/>
+      <c r="L76" s="8">
         <v>43</v>
       </c>
-      <c r="L76" s="9" t="s">
+      <c r="M76" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M76" s="9"/>
-      <c r="N76" s="2"/>
-    </row>
-    <row r="77" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N76" s="9"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="34" t="s">
         <v>153</v>
       </c>
@@ -4166,28 +4247,29 @@
       <c r="D77" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="28"/>
+      <c r="F77" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="8">
+      <c r="K77" s="9"/>
+      <c r="L77" s="8">
         <v>43</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="M77" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M77" s="9"/>
-      <c r="N77" s="2"/>
-    </row>
-    <row r="78" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N77" s="9"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
         <v>154</v>
       </c>
@@ -4200,28 +4282,29 @@
       <c r="D78" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="28"/>
+      <c r="F78" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="8">
+      <c r="K78" s="9"/>
+      <c r="L78" s="8">
         <v>43</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="M78" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M78" s="9"/>
-      <c r="N78" s="2"/>
-    </row>
-    <row r="79" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N78" s="9"/>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
         <v>155</v>
       </c>
@@ -4234,28 +4317,29 @@
       <c r="D79" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="28"/>
+      <c r="F79" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="8">
+      <c r="K79" s="9"/>
+      <c r="L79" s="8">
         <v>43</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="M79" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M79" s="9"/>
-      <c r="N79" s="2"/>
-    </row>
-    <row r="80" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N79" s="9"/>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
         <v>157</v>
       </c>
@@ -4268,28 +4352,29 @@
       <c r="D80" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="E80" s="28" t="s">
+      <c r="E80" s="28"/>
+      <c r="F80" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9" t="s">
+      <c r="G80" s="9"/>
+      <c r="H80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J80" s="9"/>
-      <c r="K80" s="8">
+      <c r="K80" s="9"/>
+      <c r="L80" s="8">
         <v>43</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="M80" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M80" s="9"/>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N80" s="9"/>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="34" t="s">
         <v>158</v>
       </c>
@@ -4302,28 +4387,29 @@
       <c r="D81" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="28"/>
+      <c r="F81" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="8">
+      <c r="K81" s="9"/>
+      <c r="L81" s="8">
         <v>43</v>
       </c>
-      <c r="L81" s="9" t="s">
+      <c r="M81" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M81" s="9"/>
-      <c r="N81" s="2"/>
-    </row>
-    <row r="82" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N81" s="9"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
         <v>160</v>
       </c>
@@ -4336,28 +4422,29 @@
       <c r="D82" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="28"/>
+      <c r="F82" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J82" s="9"/>
-      <c r="K82" s="8">
+      <c r="K82" s="9"/>
+      <c r="L82" s="8">
         <v>43</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="M82" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M82" s="9"/>
-      <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N82" s="9"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
         <v>162</v>
       </c>
@@ -4370,28 +4457,29 @@
       <c r="D83" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="28"/>
+      <c r="F83" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J83" s="9"/>
-      <c r="K83" s="8">
+      <c r="K83" s="9"/>
+      <c r="L83" s="8">
         <v>43</v>
       </c>
-      <c r="L83" s="9" t="s">
+      <c r="M83" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="M83" s="9"/>
-      <c r="N83" s="2"/>
-    </row>
-    <row r="84" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N83" s="9"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
         <v>165</v>
       </c>
@@ -4404,26 +4492,27 @@
       <c r="D84" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="28"/>
+      <c r="F84" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="9">
+      <c r="K84" s="9"/>
+      <c r="L84" s="9">
         <v>43</v>
       </c>
-      <c r="L84" s="18" t="s">
+      <c r="M84" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="M84" s="9"/>
-      <c r="N84" s="2"/>
-    </row>
-    <row r="85" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N84" s="9"/>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="34" t="s">
         <v>168</v>
       </c>
@@ -4436,28 +4525,29 @@
       <c r="D85" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="28"/>
+      <c r="F85" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="28" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J85" s="9"/>
-      <c r="K85" s="1" t="s">
+      <c r="K85" s="9"/>
+      <c r="L85" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L85" s="30" t="s">
+      <c r="M85" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="M85" s="9"/>
-      <c r="N85" s="2"/>
-    </row>
-    <row r="86" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N85" s="9"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
         <v>170</v>
       </c>
@@ -4470,28 +4560,29 @@
       <c r="D86" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="28"/>
+      <c r="F86" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="9"/>
-      <c r="I86" s="28" t="s">
+      <c r="G86" s="9"/>
+      <c r="H86" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J86" s="9"/>
-      <c r="K86" s="1" t="s">
+      <c r="K86" s="9"/>
+      <c r="L86" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L86" s="30" t="s">
+      <c r="M86" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="M86" s="9"/>
-      <c r="N86" s="2"/>
-    </row>
-    <row r="87" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N86" s="9"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="34" t="s">
         <v>172</v>
       </c>
@@ -4504,22 +4595,23 @@
       <c r="D87" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="28"/>
+      <c r="F87" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="9"/>
+      <c r="H87" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
-      <c r="N87" s="2"/>
-    </row>
-    <row r="88" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N87" s="9"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
         <v>173</v>
       </c>
@@ -4532,24 +4624,25 @@
       <c r="D88" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="E88" s="28" t="s">
+      <c r="E88" s="28"/>
+      <c r="F88" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9" t="s">
+      <c r="G88" s="9"/>
+      <c r="H88" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
-      <c r="N88" s="2"/>
-    </row>
-    <row r="89" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N88" s="9"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="34" t="s">
         <v>175</v>
       </c>
@@ -4562,24 +4655,25 @@
       <c r="D89" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="E89" s="28" t="s">
+      <c r="E89" s="28"/>
+      <c r="F89" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9" t="s">
+      <c r="G89" s="9"/>
+      <c r="H89" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
-      <c r="N89" s="2"/>
-    </row>
-    <row r="90" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N89" s="9"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
         <v>176</v>
       </c>
@@ -4592,24 +4686,25 @@
       <c r="D90" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="E90" s="28" t="s">
+      <c r="E90" s="28"/>
+      <c r="F90" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
-      <c r="N90" s="2"/>
-    </row>
-    <row r="91" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N90" s="9"/>
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="34" t="s">
         <v>177</v>
       </c>
@@ -4622,24 +4717,25 @@
       <c r="D91" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E91" s="28" t="s">
+      <c r="E91" s="28"/>
+      <c r="F91" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9" t="s">
+      <c r="G91" s="9"/>
+      <c r="H91" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J91" s="2"/>
-      <c r="K91" s="9"/>
+      <c r="K91" s="2"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
-      <c r="N91" s="2"/>
-    </row>
-    <row r="92" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="N91" s="9"/>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
         <v>178</v>
       </c>
@@ -4652,22 +4748,23 @@
       <c r="D92" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="28"/>
+      <c r="F92" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="9"/>
+      <c r="H92" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
-      <c r="N92" s="2"/>
-    </row>
-    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="N92" s="9"/>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="34" t="s">
         <v>180</v>
       </c>
@@ -4680,22 +4777,23 @@
       <c r="D93" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="28"/>
+      <c r="F93" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
-      <c r="N93" s="2"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N93" s="9"/>
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
         <v>181</v>
       </c>
@@ -4708,13 +4806,13 @@
       <c r="D94" t="s">
         <v>306</v>
       </c>
-      <c r="E94" s="37" t="s">
+      <c r="F94" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="G94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4733,14 +4831,14 @@
       <selection activeCell="E14" sqref="E11:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="30.21875" customWidth="1"/>
-    <col min="8" max="8" width="33.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -4782,7 +4880,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -4812,7 +4910,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -4838,7 +4936,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>116</v>
       </c>
@@ -4870,7 +4968,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
@@ -4902,7 +5000,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
@@ -4934,7 +5032,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -4966,7 +5064,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
@@ -4998,7 +5096,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>128</v>
       </c>
@@ -5043,18 +5141,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5096,7 +5194,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -5122,7 +5220,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -5148,7 +5246,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -5174,7 +5272,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -5200,7 +5298,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -5226,7 +5324,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -5254,7 +5352,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -5280,7 +5378,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -5306,7 +5404,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -5332,7 +5430,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -5358,7 +5456,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -5400,17 +5498,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" customWidth="1"/>
-    <col min="12" max="12" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5452,7 +5550,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
@@ -5478,7 +5576,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>158</v>
       </c>
@@ -5510,7 +5608,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>160</v>
       </c>
@@ -5556,15 +5654,15 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5606,7 +5704,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -5632,7 +5730,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -5660,7 +5758,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -5701,15 +5799,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="78.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="78.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
@@ -5751,7 +5849,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5777,7 +5875,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
